--- a/foodpreprocessed.xlsx
+++ b/foodpreprocessed.xlsx
@@ -490,27 +490,27 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Petites Madeleines</t>
+          <t>Chilli and Coriander King Prawns</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3178530410105</t>
+          <t>https://world.openfoodfacts.org/product/01804225</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>wheat flour (32%), rapeseed oil, non-hydrogenated, sugar, eggs from hens raised outdoors (16%), stabilizer: glycerol, glucose-fructose syrup, fresh milk semi-skimmed pasteurized (5%), baking powders: diphosphates and carbonates of sodium (wheat), salt, flavour, contains soy, traces of any nuts,</t>
+          <t>King Prawn (86%) (King Prawn (Penaeus vannamei) (Crustacean), Salt), Chilli and Coriander Marinade (14%) (Vegetable Oil (Rapeseed Oil and/or Sunflower Oil), Water, Coriander, Red Bell Pepper, Red Chilli, Ginger, Lime Juice, Lemon Grass, Shallot, Cassava Starch, Salt, potato starch, garlic)</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Gluten, Milk</t>
+          <t>Crustaceans</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, soy, tree nut, wheat</t>
+          <t>shellfish</t>
         </is>
       </c>
     </row>
@@ -522,29 +522,21 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Real Mayonnaise</t>
+          <t>Red Bull Energy Drink</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5060092690331</t>
+          <t>https://world.openfoodfacts.org/product/90162602</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Rapeseed Oil (75%), Free Range Pasteurised Whole Egg (12%), Water, Extra Virgin Olive Oil (5%), Unrefined Raw Cane Sugar, Acid: Acetic Acid, Sea Salt, Mustard</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>Eggs, Mustard</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>egg</t>
-        </is>
-      </c>
+          <t>Carbonated Water, Sugar, Glucose, Citric Acid, Taurine, Natural flavors, Artificial Flavors, Sodium Bicarbonate, Magnesium Carbonate, Artificial Colors, Caffeine, Niacinamide, Pyridoxine Hci, Calcium Pantothenate, Vitamin B12.</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
@@ -554,20 +546,24 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Chicorée soluble nature</t>
+          <t>Tomato Ketchup BIO</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3067140013120</t>
+          <t>https://world.openfoodfacts.org/product/8715700407760</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100% soluble chicory</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr"/>
+          <t>tomatoes (180 g per 100 g of ketchup), sugar, vinegar, salt, spices (contain celery), onion powder, garlic powder,</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Celery</t>
+        </is>
+      </c>
       <c r="F4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
@@ -578,27 +574,23 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Pesto alla Genovese</t>
+          <t>PROPERCHIPS Sea Salt Lentil Chips</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8076809513753</t>
+          <t>https://world.openfoodfacts.org/product/5060283762199</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>sunflower oil, fresh basil 30%, cashew nuts, parmigiano reggiano pdo cheese 5%, (milk), maize fibre, whey powder (milk), salt, milk protein, extra virgin olive oil, sugar, basil extract, natural flavourings (milk), acidity regulator: lactic acid, garlic</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Milk, Nuts</t>
-        </is>
-      </c>
+          <t>Lentil flour (30%), potato starch, vegetable oils (sunflower, rapeseed), corn flour, salt.</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>milk, tree nut</t>
+          <t>wheat</t>
         </is>
       </c>
     </row>
@@ -610,17 +602,17 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>SLICED WHITE SOURDOUGH BREAD WITH GRAINS &amp; SEEDS</t>
+          <t>Weetabix produit à base de blé complet 100%</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5025125000037</t>
+          <t>https://world.openfoodfacts.org/product/5010029000023</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Wheat Flour (Wheat Flour, Calcium Carbonate, Iron, Niacin, Thiamin), Water, Mixed Seeds (Golden Linseeds, Sunflower Seeds (6%), Sprouted Spelt (Wheat) Grains (1.5%), Salt, Fermented Wheat Flour.</t>
+          <t>Whole wheat (95%), malted barley extract, sugar, salt, niacin, iron, riboflavin (b2), thiamin (b1), folic acid.</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -642,29 +634,21 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>St Jacques fondue de poireaux &amp; Riz Basmati</t>
+          <t>Custard powder</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3248832967611</t>
+          <t>https://world.openfoodfacts.org/product/5000354908248</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>cooked rice 35.5% (water, basmati rice, rapeseed oil, salt), scallop 21.4% (A *: Zygochlamys patagonica from Argentina - B *: Russian Chlamys albidus - C *: Argopecten purpuratus from Peru - D *: Chlamys opercularis Scotland / Ireland), fresh cream 12%, water, leeks 8.7%, vermouth, wheat flour, shallots 1.8%, butter 0.7%, rapeseed oil, white wine 0.4%, salt, garlic, concentrated lemon juice, pepper. * To know the origin and the species, refer to the lot number</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Gluten, Milk, Molluscs</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>milk, shellfish, wheat</t>
-        </is>
-      </c>
+          <t>maize starch, salt, flavouring, colour (annatto),</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -674,29 +658,21 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Bâton surimi</t>
+          <t>Heinz Baked Beans</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3564700309575</t>
+          <t>https://world.openfoodfacts.org/product/5000157024886</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>fish meat 38% , water , rehydrated egg white , potato starch , rapeseed oil , wheat starch , sugar , salt , natural flavours (including crustaceans, wheat) , colour: paprika extract,</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>Crustaceans, Eggs, Fish, Gluten</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>egg, fish, shellfish, wheat</t>
-        </is>
-      </c>
+          <t>Beans (51%), Tomatoes (34%), Water, Sugar, spirit Vinegar, Modified Cornflour, Salt, Spice extracts, Herb Extract</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -706,29 +682,25 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Pesto Rosso</t>
+          <t>Classic Yellow Mustard</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8076809523547</t>
+          <t>https://world.openfoodfacts.org/product/0041500763675</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Tomato pulp 37%, sunflower oil, tomato concentrate 15%, Grana Padano PDO cheese (milk, lysozyme from egg), cashews, sugar, salt, basil, Balsamic Vinegar of Modena (wine vinegar, cooked grape must) 2%, whey powder (milk), Pecorino Romano PDO cheese (sheep's milk), rice starch, garlic, acidity regulator: lactic acid, natural flavouring (milk).</t>
+          <t>SPIRIT VINEGAR, WATER, MUSTARD SEED, SALT, TURMERIC, PAPRIKA, SPICE, FLAVOURING, GARLIC POWDER.</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Milk, Nuts</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>egg, milk, tree nut</t>
-        </is>
-      </c>
+          <t>Mustard</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
@@ -738,21 +710,29 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>Levure</t>
+          <t>Wild Pacific Sardines in Extra Virgin Olive Oil Lightly Smoked</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111245370064</t>
+          <t>https://world.openfoodfacts.org/product/0829696000800</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Yeast, Emulsifier (E491/SIN491)</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr"/>
+          <t>Sardines (sardinops sagax or sardinops melanostictus), organic extra virgin olive oil, water, sea salt, aqueous natural smoke.</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>fish</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -762,27 +742,27 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>Houmous</t>
+          <t>Lea &amp; Perrins, The Original Worcestershire Sauce, Unwrap The Flavor</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/4088600003429</t>
+          <t>https://world.openfoodfacts.org/product/0051600000013</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Cooked Chickpeas 48% (Chickpeas, Water), Water, Rapeseed Oil, Sesame Seed Paste 13%, Concentrated Lemon Juice 3%, Garlic Purée 1%, Salt, Preservative (Potassium Sorbate)</t>
+          <t>Distilled white vinegar, molasses, sugar, water, salt, onions, anchovies, garlic, cloves, tamarind extract, natural flavorings, chili pepper extract.</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>Sesame Seeds</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>sesame</t>
+          <t>fish</t>
         </is>
       </c>
     </row>
@@ -794,27 +774,27 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Mayonnaise</t>
+          <t>Almond No Sugars</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8718114724485</t>
+          <t>https://world.openfoodfacts.org/product/4061459332896</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>rapeseed oil (78%), egg , egg yolk (7,9%), water, spirit vinegar, sugar, salt, lemon juice concentrate, flavourings, antioxidant (calcium disodium edta), paprika extract, sunflower oil,</t>
+          <t>Water, Almond (2.3%), Minerals (Calcium Citrate), Sea Salt, Stabiliser: Gellan Gum, Vitamins (Riboflavin, Vitamin B12, Vitamin D, Vitamin E).</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>tree nut</t>
         </is>
       </c>
     </row>
@@ -826,21 +806,29 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Aïn Ifran Eau minérale naturelle</t>
+          <t>nut granola blueberry cinnamon sweet &amp; crunchy</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111251420272</t>
+          <t>https://world.openfoodfacts.org/product/0819562022791</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>mineral water</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
+          <t>sunflower seeds, pumpkin seeds, coconut, almonds, pecans, erythritol, butter (pasteurized cream, natural flavor), dried blueberries, cinnamon, salt, monk fruit extract</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>Milk, Nuts</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>milk, tree nut</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -850,21 +838,25 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Poudre stevia</t>
+          <t>Oregano Crostini Italian Bread Bites</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3329757002998</t>
+          <t>https://world.openfoodfacts.org/product/5060198640643</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>charge agent: erythritol, sweetener: steviol glycosides (stevia plant extract), natural aromas,</t>
+          <t>flour, olive oil, salt, yeast, oregano, malted what flour</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
@@ -874,25 +866,29 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Tomato Ketchup 910g</t>
+          <t>Sablé Nature sans sucres</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/87157277</t>
+          <t>https://world.openfoodfacts.org/product/3175681134904</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>tomato (148 g per 100 g of tomato ketchup), vinegar, sugar, salt, extracts of herbs and spices (contain celery ), spice,</t>
+          <t>wheat flour 58.5%, sweetener: maltitols of vegetable origin, rapeseed oil, wheat starch, wheat fiber, natural flavour, sea salt, emulsifiers: rapeseed lecithins, baking powder: ammonium carbonates,</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>Celery</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr"/>
+          <t>Gluten</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -902,27 +898,27 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Lea and perrins</t>
+          <t>Wild sardines, oil, smoked</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000111041843</t>
+          <t>https://world.openfoodfacts.org/product/0048000007063</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Malt Vinegar (from Barley), Spirit Vinegar, Molasses, Sugar, Salt, Anchovies (Fish), Tamarind Extract, Onions, Garlic, Spice, Flavourings</t>
+          <t>Smoked sardines , soybean oil, water, salt, smoke flavor</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Fish, Gluten</t>
+          <t>Fish, Soybeans</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fish, wheat</t>
+          <t>fish, soy</t>
         </is>
       </c>
     </row>
@@ -934,29 +930,21 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Vanille au soja</t>
+          <t>Fanta Orange</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5411188103387</t>
+          <t>https://world.openfoodfacts.org/product/5449000004840</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>water, hulled soybeans (7.3%), sugar, glucose-fructose syrup, stabiliser (pectin), acidity regulators (citric acid, sodium citrate), tricalcium phosphate, carrot extract, sea salt, vitamins (riboflavin (b2), b12, d2), flavouring, natural flavouring, vanilla powder (0.03%), antioxidants (tocopherol extract, ascorbyl palminate), yoghurt cultures (s, thermophilus, l, bulgaricus)</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>Soybeans</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>milk, soy</t>
-        </is>
-      </c>
+          <t>Agua carbonatada, 8% zumo de naranja a partir de concentrado. azúcar. acidulantes: ácido cítrico y ácido málico, estabilizantes: E-414. E-444 y E.445. edulcorantes: E-950. aspartamo y E-959. conservador E-202, corrector de acidez: citratos de sodio, aromas naturales de naranja y otros aromas naturales, antioxidante ácido ascórbico y colorante carotenos. Contiene una fuente de fenilalanina.</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -966,21 +954,29 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Delicia double concentre de tomates</t>
+          <t>Chosen classic Mayo</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111162001201</t>
+          <t>https://world.openfoodfacts.org/product/0815074020003</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>tomates extrait sec 28% min</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
+          <t>AVOCADO OIL, FILTERED WATER, EGG YOLKS, ORGANIC WHOLE EGGS, ORGANIC DISTILLED WHITE VINEGAR, ORGANIC MUSTARD (ORGANIC DISTILLED VINEGAR, WATER, ORGANIC MUSTARD SEED, SALT, ORGANIC SPICES), SALT, ORGANIC ROSEMARY EXTRACT (FOR FRESHNESS), EGG.</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Eggs, Mustard</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>egg</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
@@ -990,29 +986,21 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Tartine croustillante Authentique</t>
+          <t>Baked Beans in a Rich Tomato Sauce</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7300400481595</t>
+          <t>https://world.openfoodfacts.org/product/4088600072517</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>wholemeal rye flour (77 g*), rye flour (28 g*), yeast, salt, may contain traces of milk and sesame seeds, *in g per 100 g of product,</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Gluten</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>milk, sesame, wheat</t>
-        </is>
-      </c>
+          <t>haricot beans 50%, tomato 35%, water, sugar, modified maize starch, salt, onion powder, ground paprika, flavourings, paprika extract,</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -1022,27 +1010,27 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>jaouda Cremy</t>
+          <t>Kimchi</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111242100305</t>
+          <t>https://world.openfoodfacts.org/product/0810075553161</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>fresh milk, sugar, skimmed milk powder, texturizer: starch, cream, flavouring, selected lactic ferments, 3% fat</t>
+          <t>NAPA CABBAGE, RADISH, RICE PASTE WATER, RICE POWDER), KELP BASE SAUCE(KELP EXTRACT, SORBITOL), RED PEPPER POWDER, GARLIC, FERMENTED ANCHOVY SAUCE (ANCHOW, SALT), SALT, KOREAN LEEK, ONION, CHIVES, FERMENTED SHRIMP SAUCE(SHRIMP, SALT, LACTIC ACID BACTERIA, GINGER CONTAINS FISH(ANCHOVY), SHRIMP</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Crustaceans, Fish</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>fish, shellfish</t>
         </is>
       </c>
     </row>
@@ -1054,27 +1042,27 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Toblerone</t>
+          <t>Goldfish Baked Snack Crackers Cheddar</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7614500010013</t>
+          <t>https://world.openfoodfacts.org/product/0014100075233</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>sugar, whole milk powder, cocoa butter, cocoa mass, honey (3%), milk fat, almonds (1,6%), emulsifier (soya lecithin), egg white, flavouring, cocoa solids 28% minimum, milk solids 14% minimum,</t>
+          <t>ENRICHED WHEAT FLOUR (FLOUR, NIACIN, REDUCED IRON, THIAMINE MONONITRATE, RIBOFLAVIN, FOLIC ACID), CHEDDAR CHEESE ([CULTURED MILK, SALT, ENZYMES), ANNATTO), VEGETABLE OILS (CANOLA, SUNFLOWER AND/OR SOYBEAN), SALT, CONTAINS 2% OR LESS OF: YEAST, SUGAR, AUTOLYZED YEAST EXTRACT, PAPRIKA, SPICES, CELERY, ONION POWDER, MONOCALCIUM PHOSPHATE, BAKING SODA.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Milk, Nuts, Soybeans</t>
+          <t>Celery, Gluten, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, soy, tree nut</t>
+          <t>milk, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1074,21 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>LIDL FERRERO Nutella Nuss-Nugat-Creme 2.95€ 720g Glas 1kg 3.93€</t>
+          <t>Baked Beans In Tomato Sauce</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/4008400404127</t>
+          <t>https://world.openfoodfacts.org/product/5018374350930</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>sugar, palm oil, hazelnuts (13 %), low fat cocoa, skimmed milk powder (8,7%), emulsifier: lecithins ( soya ), vanillin,</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Milk, Nuts, Soybeans, Fruits À Coque</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>milk, soy, tree nut</t>
-        </is>
-      </c>
+          <t>Haricot Beans (49%), Water, Tomato Purée (20%), Sugar, Modified Maize Starch, Salt, Onion Powder, Colour (Paprika Extract), Maltodextrin, Spice Extracts.</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1118,24 +1098,20 @@
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Tomato Ketchup</t>
+          <t>Easy Bake Yeast</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/50457250</t>
+          <t>https://world.openfoodfacts.org/product/5010067373417</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Tomatoes, Spirit Vinegar, Sugar, Salt, Spice and Herb Extracts (Celery), Spice</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Celery</t>
-        </is>
-      </c>
+          <t>water, mango juice from concentrate, passion fruit juice from concentrate, lime juice, natural flavourings including passion fruit and mango, stabiliser: pectin, citric acid, sweetener: steviol glycosides from stevia</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1146,29 +1122,21 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Majoneesi</t>
+          <t>Coca Cola Original taste</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000184321064</t>
+          <t>https://world.openfoodfacts.org/product/5449000000439</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Rapsolje 78%, vann, EGG OG EGGEPLOMME 7,9%, eddik, salt, sukker, sitronjuicekonsentrat, antioxidant (E 385), aroma, paprikaekstrakt</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Eggs</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>egg</t>
-        </is>
-      </c>
+          <t>carbonated water, sugar, colour (caramel e150), acid (phosphoric acid), natural flavourings (including caffeine)</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1178,21 +1146,29 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Eau minerale</t>
+          <t>Ambrosia Rice pudding</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111035001383</t>
+          <t>https://world.openfoodfacts.org/product/5000354800931</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Magnesium, Potassium, Bicarbonates, Sodium, Sulfates, Chlorides, Nitrates</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
+          <t>full cream milk , skimmed milk , whey , rice 9%, sugar</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Milk</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -1202,29 +1178,21 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>Tzatziki</t>
+          <t>Chickpeas In Water</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3292070007905</t>
+          <t>https://world.openfoodfacts.org/product/5051399182506</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>fresh cheese with 0% fat 61% (contains milk), cucumbers 19% - rapeseed oil - dill - salt - parsley - garlic powder - preservative: e202 - thickener: e415 - pepper, traces possible of: soy, cereals containing gluten, crustaceans, eggs, fish, celery, mustard, sesame seeds, shellfish, french: fresh cheese (origin france) with o% fat 61% (contains milk), cucumbers 19%, rapeseed oil, dill, salt, parsley, garlic powder, preservative: e 202, thickener: e 415, pepper,</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>Celery, Crustaceans, Eggs, Fish, Gluten, Milk, Mustard, Sesame Seeds, Soybeans</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>egg, fish, milk, sesame, shellfish, soy, wheat</t>
-        </is>
-      </c>
+          <t>chickpeas, water, antioxidant (ascorbic acid).</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1234,25 +1202,29 @@
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>Moutarde de Dijon</t>
+          <t>Onken</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20697075</t>
+          <t>https://world.openfoodfacts.org/product/7610900299072</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>water, mustard seeds, alcohol vinegar, salt, antioxidant: potassium disulfite, acidifier: citric acid,</t>
+          <t>Yogurt (MILK), Vitamin D. Contains live cultures: Lactobacillus Bulgaricus, Streptococcus Thermophilus, and Bifidobacterium.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Mustard, Sulphur Dioxide And Sulphites</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr"/>
+          <t>Milk</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>milk</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1262,27 +1234,27 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>Menguy's Beurre de cacahuètes creamy</t>
+          <t>Mi Goreng</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3327272107259</t>
+          <t>https://world.openfoodfacts.org/product/8850987131707</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>roasted peanuts of the americas 86%, vegetable butter (salt, cocoa), sugar, salt,</t>
+          <t>noodles: soft wheat flour 64,11%, palm oil, anti-oxidant e320, e321), modified tapioca starch, salt, sugar, thickener (e466), acidity regulator (e500, e501) seasonings: sugar, spices, salt, soy sauce powder, flavour enhancers (e621, e635), oyster aroma (flavour, fish, shrimp), colouring (e150a), anti-aggregator (e551), shallot aroma, seasoning oil: sweet soy sauce (corn glucose syrup, soy sauce, molasses, caramel color, vinegar), shallot oil, garlic oil, garlic flavour, topping: dried vegetables pepper bag: chilli powder</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Milk, Peanuts</t>
+          <t>Crustaceans, Fish, Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>milk, peanut</t>
+          <t>fish, shellfish, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -1294,27 +1266,27 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>Шоколад 85% какаова маса</t>
+          <t>Light Rye Crispbread</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20995553</t>
+          <t>https://world.openfoodfacts.org/product/0033617322616</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>cocoa mass, low-fat cocoa powder, cocoa butter, sugar, emulsifier: lecithin (soy), vanilla extract, may contain traces of nuts and milk,</t>
+          <t>WHOLE GRAIN RYE FLOUR, SALT.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Soybeans</t>
+          <t>Gluten, Milk, Sesame Seeds</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>milk, sesame, wheat</t>
         </is>
       </c>
     </row>
@@ -1326,27 +1298,27 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>mayonnaise de Dijon</t>
+          <t>CREAMY PEANUT BUTTER</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8711200548002</t>
+          <t>https://world.openfoodfacts.org/product/0037600223324</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>vegetable oils (sunflower, rapeseed), white wine vinegar, water, dijon mustard and 5,5 % (water, mustard seeds, spirit vinegar, salt), egg yolk from hens raised outdoors, or 5,1%, salt, sugar, dextrin, thickener : xanthan gum, aroma, colourings : lutein and paprika extract,</t>
+          <t>ROASTED PEANUTS SUGAR, HYDROGENATED VEGETABLE OIL (COTTONSEED, SOYBEAN AND RAPESEED OIL) TO PREVENT SEPARATION, SALT.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Mustard</t>
+          <t>Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>peanut, soy</t>
         </is>
       </c>
     </row>
@@ -1358,23 +1330,27 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>PROPERCHIPS Sea Salt Lentil Chips</t>
+          <t>Sardine Fillets in 100% Olive Oil</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5060283762199</t>
+          <t>https://world.openfoodfacts.org/product/0070303022160</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Lentil flour (30%), potato starch, vegetable oils (sunflower, rapeseed), corn flour, salt.</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>Sardines (Fish), Olive Oil, Salt</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>wheat</t>
+          <t>fish</t>
         </is>
       </c>
     </row>
@@ -1386,27 +1362,27 @@
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>Nutella</t>
+          <t>Flourless Sprouted Grain Bread</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/80176800</t>
+          <t>https://world.openfoodfacts.org/product/0073472001202</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>sugar, palm oil, hazelnuts, skimmed milk powder, low-fat cocoa, emulsifier: lecithins (soy), vanillin,</t>
+          <t>organic sprouted wheat, filtered water, organic sprouted barley, organic sprouted millet, organic malted barley, organic sprouted lentils, organic sprouted soybeans, organic sprouted spelt, fresh yeast,organic wheat gluten, sea salt,</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts, Soybeans</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -1418,27 +1394,27 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>Les Tranches Végé Pois chiches</t>
+          <t>Chocolate Sea Salt RXBAR</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3302740087042</t>
+          <t>https://world.openfoodfacts.org/product/0857777004232</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>water*, chickpeas (from france) 19.6%, egg white powder, rapeseed oil, starches, broth (water, carrots, onions, aromatic plants, celery, salt, rapeseed oil, spices), plant extract, salt, natural flavourings, preservative: buffered vinegar, pepper, colour: ordinary caramel,</t>
+          <t>Dates, Egg Whites, Cashews, Almonds, Chocolate, Cocoa, Natural Flavors, Sea Salt</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>Celery, Eggs</t>
+          <t>Eggs, Nuts</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>egg, tree nut</t>
         </is>
       </c>
     </row>
@@ -1450,27 +1426,27 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>Pains au lait x10</t>
+          <t>Bolachas Recheadas Framboesa</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3256540000698</t>
+          <t>https://world.openfoodfacts.org/product/20005559</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>wheat flour 43%, sourdough 21%, wheat flour 11%, water, salt, fresh eggs 11%, sugar, pastry butter, rapeseed oil, yeast, skimmed milk powder equivalent to 10% reconstituted skimmed milk, emulsifier: mono and diglycerides of fatty acids, salt, wheat protein, wheat gluten, carrot extract, flavourings, antioxidant: ascorbic acid, milk protein</t>
+          <t>sugar, glucose fructose syrup, wheat flour, chocolate liquor, eggs, palm oil, cocoa butter, concentrated raspberry juice, sorbitol, pectin, citric acid, leavening (sodium acid pyrophosphate, baking soda), emulsifier blend (soy lecithin, sunflower lecithin, mono - and diglycerides of fatty acids), whey protein concentrate, natural raspberry flavor, natural flavors, salt, wheat starch,</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Gluten, Milk</t>
+          <t>Eggs, Gluten, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, wheat</t>
+          <t>egg, milk, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -1482,27 +1458,27 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>Jalapeño Ramona's Heavenly Houmous</t>
+          <t>Low Sugar Maple &amp; Pecan Granola imp</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5060228323980</t>
+          <t>https://world.openfoodfacts.org/product/5060043224585</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Cooked Chickpeas (62%) (Chickpeas, Water), Rapeseed Oil, Tahini (Sesame Seeds), Jalapenos (5%) (Jalapeno Peppers, Spirit Vinegar, Firming Agent: Calcium Chloride), Water, Salt, Acidity Regulator: Citric Acid, Garlic Powder, Modified Maize Starch, Preservative: Potassium Sorbate, Ground Cumin, Curry Powder (Mustard, Celery).</t>
+          <t>Wholegrain Oat Flakes (67%), Rapeseed Oil, Nuts (8%) [Pecan Nut Pieces, Walnut Pieces, Almond Pieces], Seeds (6%) [Sunflower, Pumpkin], Desiccated Coconut, Maple Syrup (2%), Chicory Fibre, Natural Flavouring, Sea Salt, Fructose.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Celery, Mustard, Sesame Seeds</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>sesame</t>
+          <t>tree nut</t>
         </is>
       </c>
     </row>
@@ -1514,27 +1490,27 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>Crunchy Peanut Butter</t>
+          <t>Organic Roasted Seaweed Snack</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5060367181311</t>
+          <t>https://world.openfoodfacts.org/product/0096619332748</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Peanuts (99.6%), Sea Salt.</t>
+          <t>Organic Seaweed, Organic Sunflower Oil, Organic Sesame Oil, Sea Salt, Organic Rosemary Extract</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Peanuts</t>
+          <t>Sesame Seeds</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>peanut</t>
+          <t>sesame</t>
         </is>
       </c>
     </row>
@@ -1546,29 +1522,25 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>Oat Drink Barista Edition</t>
+          <t>Moutarde de Dijon</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7394376616228</t>
+          <t>https://world.openfoodfacts.org/product/3270190136880</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>water, oats 10%, rapeseed oil, acidity regulator (dipotassium phosphate), minerals (calcium carbonate, potassium iodide), salt, vitamins (d2, riboflavin and b12),</t>
+          <t>water, organic mustard seeds 30%, organic alcohol vinegar, salt,</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Gluten</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>wheat</t>
-        </is>
-      </c>
+          <t>Mustard</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -1578,27 +1550,27 @@
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>Jben</t>
+          <t>Protein Bars</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111242106949</t>
+          <t>https://world.openfoodfacts.org/product/0193908007292</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>whole fresh milk, cream, stabilizers, starch, carrageenan, salt, lactic ferments fat 21%</t>
+          <t>Dates, Egg Whites, Cashews, Almonds,, Chocolate, Cocoa, Natural Flavors, Sea Salt, Dates, Egg Whites, Almonds, Cashews,, Blueberries, Natural Flavors.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Eggs, Nuts</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>egg, tree nut</t>
         </is>
       </c>
     </row>
@@ -1610,27 +1582,27 @@
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>Heinz [Seriously] Good Mayonnaise</t>
+          <t>Toblerone Dark Chocolate with Honey &amp; Almond Nougat</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000157143037</t>
+          <t>https://world.openfoodfacts.org/product/7614500010617</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Rapeseed Oil (68%), Water, Pasteurised Free Range Egg Yolk (5%), Spirit Vinegar, Sugar, Starch, Salt, Mustard Seeds, Spices, Antioxidant (Calcium Disodium EDTA)</t>
+          <t>cocoa mass, sugar, milk fat, honey (3,0 %), almonds (1,6%), cocoa butter, emulsifier (soya lecithin), egg white, chocolate contains: cocoa solids: 50% minimum,</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Mustard</t>
+          <t>Eggs, Milk, Nuts, Soybeans</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>egg, milk, soy, tree nut</t>
         </is>
       </c>
     </row>
@@ -1642,29 +1614,21 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>Smooth Peanut butter</t>
+          <t>Olive oil</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5013665109389</t>
+          <t>https://world.openfoodfacts.org/product/5000442007594</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>roasted peanuts (96%), sustainable palm oil, sea salt.</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>Peanuts</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>peanut</t>
-        </is>
-      </c>
+          <t>Extra Virgin Olive Oil (51%) Water, Alcohol, Emulsifier: Sunflower Lecithin Flavouring, Thickener: Xanthan Gum</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -1674,27 +1638,27 @@
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>Snickers</t>
+          <t>Sardines in Water</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000159461122</t>
+          <t>https://world.openfoodfacts.org/product/0048000007070</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Milk Chocolate (sugar, cocoa butter, chocolate, skim milk, lactose, milkfat, soy lecithin), peanuts, corn syrup, sugar, palm oil, skim milk, lactose, salt, egg whites, artificial flavor.</t>
+          <t>SARDINES (SPRATTUS SPRATTUS, CLUPEA HARENGUS), WATER, SALT.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Milk, Peanuts, Soybeans</t>
+          <t>Eggs, Fish</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, peanut, soy</t>
+          <t>egg, fish</t>
         </is>
       </c>
     </row>
@@ -1706,29 +1670,21 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Marmite Yeast Extract</t>
+          <t>Marinara</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/50184453</t>
+          <t>https://world.openfoodfacts.org/product/0747479000413</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>yeast extract, barley, wheat, oats, rye, salt, vegetable juice concentrate, thiamin, riboflavin, niacin, vitamin B12, folic acid, natural flavouring, celery</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Celery, Gluten</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>wheat</t>
-        </is>
-      </c>
+          <t>Italian Whole Peeled Tomatoes, Olive Oil, Onions, Salt, Garlic, Basil, Black Pepper, Oregano.</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -1738,27 +1694,27 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Nutritional Yeast Flakes</t>
+          <t>6 Soft White Rolls Sliced</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5016084000374</t>
+          <t>https://world.openfoodfacts.org/product/5010044002316</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Dried inactive yeast (99%), Thiamine (B1), Riboflavin (B2), Niacin (B3), Pantothenic acid (B5), Pyridoxine (B6), Biotin (B7), Folic acid (B9) Cyanocobalamin (B12), Zinc sulfate.</t>
+          <t>wheat flour [with calcium, iron, niacin (b3) and thiamin (b1)], water, vegetable oil (rapeseed, sustainable palm), yeast, salt, sugar, emulsifiers: e472e, e471, e481, soya flour, gelling agent: e466, preservative: calcium propionate, flour treatment agents: ascorbic acid (vitamin c), e920 (vegetarian)</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>Celery, Milk, Mustard, Soybeans, Sulphur Dioxide And Sulphites</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>milk, soy</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -1770,25 +1726,29 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>Organic Vegetable Stock Cubes</t>
+          <t>Salted Mixed Nuts</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5013665112273</t>
+          <t>https://world.openfoodfacts.org/product/0096619885725</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Sea salt, potato starch, sustainable palm oil, sugar, vegetables 6.8% (_celery_, onion, parsnip, tomato), sunflower oil, yeast extract, caramelised sugar, herbs and spices (lovage, turmeric, parsely, black pepper).</t>
+          <t>cashews, almonds, pecans, brazil nuts, macadamia nuts, peanut oil , sea salt.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>Celery</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr"/>
+          <t>Nuts, Peanuts</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>peanut, tree nut</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -1798,21 +1758,29 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>Sirop d'Agave</t>
+          <t>Lancashire oven bottom muffins</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3088543506255</t>
+          <t>https://world.openfoodfacts.org/product/5023528000036</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>agave syrup 100%</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
+          <t>wheat flour (with calcium carbonate, iron, thiamin (b1), niacin (b3)), water, yeast, sugar, salt, vinegar, rapeseed oil, soya flour, palm oil, emulsifier (sodium stearoyl-2-lactylate), preservative (calcium propionate), flour treatment agent: ascorbic acid (vitamin c)</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Gluten, Soybeans</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>soy, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -1822,27 +1790,27 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>THE GREAT WHITE</t>
+          <t>Classic Mayo</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5025125000112</t>
+          <t>https://world.openfoodfacts.org/product/0815074022809</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Wheat Flour (Wheat Flour, Calcium Carbonate, Iron, Niacin, Thiamin), Water, Rye Flour, Salt, Fermented Wheat</t>
+          <t>AVOCADO OIL, FILTERED WATER, EGG YOLKS, WHOLE EGGS, DISTILLED VINEGAR, MUSTARD (WATER, MUSTARD SEEDS, DISTILLED VINEGAR, SALT), SALT, ROSEMARY EXTRACT</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Gluten</t>
+          <t>Eggs, Mustard</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>wheat</t>
+          <t>egg</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1827,12 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3017620429484</t>
+          <t>https://world.openfoodfacts.org/product/3017620422003</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Sucre, huile de palme, NOISETTES 13%, LAIT écrémé en poudre 8,7%, cacao maigre 7,4%, émulsifiants : lécithines [ SOJA ] vanilline</t>
+          <t>sugar, palm oil, hazelnuts 13%, low-fat cocoa 7.4%, skimmed milk powder 6.6%, whey powder, emulsifiers: lecithins [soya], vanillin, gluten-free,</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
@@ -1874,7 +1842,7 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>milk, soy, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -1886,21 +1854,29 @@
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>Oulmes natural carbonated water</t>
+          <t>Ginger Crystallized In Dark Chocolate</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111035003035</t>
+          <t>https://world.openfoodfacts.org/product/0716270001660</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Natural carbonated water 100%</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
+          <t>dark chocolate (cocoa liquor , sugar, cocoa butter , soy lecithin, vanilla), crystallized ginger (ginger, sugar)</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Soybeans</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>milk, soy</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -1910,20 +1886,24 @@
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>Nescafe classic</t>
+          <t>Tremoços</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111018903185</t>
+          <t>https://world.openfoodfacts.org/product/5601378850300</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>100% coffee</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr"/>
+          <t>Lupin beans, water, salt and acidity regulator: citric acid.</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Lupin</t>
+        </is>
+      </c>
       <c r="F49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1934,27 +1914,27 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>perly</t>
+          <t>Power Cakes Flapjack &amp; Waffle Mix Buttermilk</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111242100992</t>
+          <t>https://world.openfoodfacts.org/product/0705599011610</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>milk cream, cream, sugar, banana, bacteria</t>
+          <t>Whole grain wheat flour, Whole grain oat flour, wheat protein isolate, whey protein concentrate, brown sugar, milk protein concentrate, buttermilk powder, leavening (monocalcium phosphate, baking soda), sea salt. Contains milk and wheat. Due to processing on shared equipment, may also contain trace amounts of egg, soy, and tree nuts.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>Banana, Milk</t>
+          <t>Gluten, Milk, Nuts</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>egg, milk, soy, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -1966,29 +1946,21 @@
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>Paëlla royale aux petites gambas et au safran</t>
+          <t>belvoir farm elderflower cordial</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3248830724971</t>
+          <t>https://world.openfoodfacts.org/product/5022019010202</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>riz cuit 41,8% (eau, riz, curcuma), eau, poulet mariné et cuit 6,3% (viande de poulet origine france 6,2%, sel, sucre, jus de citron), petit pois, petites _gambas_ cuites 4,5% (crevettes, eau, sel), chorizo 3,5% (viande de bœuf origine france, viande de porc origine france, gras de porc, épices et aromates, sel, sirop de glucose, arômes naturels, ferments), poivrons rouges, haricots verts, oignons, calamars 3,1%, concentré de tomates, _moules_ décoquillées cuites 2,1%, tomates, huile de colza, jus de citron, ail, extrait de langoustine, sel, curcuma, extrait d'épice, safran.</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>Crustaceans, Molluscs, Cuisine En France</t>
-        </is>
-      </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>shellfish</t>
-        </is>
-      </c>
+          <t>Sugar, water, elderflowers, pressed lemon juice, citric acid</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -1998,27 +1970,27 @@
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>Colman's Mustard</t>
+          <t>Prince Goût Chocolat</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/50147588</t>
+          <t>https://world.openfoodfacts.org/product/7622210449283</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Water, MUSTARD flour (21%), sugar, salt, WHEAT flour (calcium carbonate, iron, niacin, thiamin), turmeric, citric acid, thickener (xanthan gum).</t>
+          <t>WHEAT flour 35%, whole WHEAT flour 15.7%, sugar, vegetable oils (palm, rapeseed), low-fat cocoa powder 4.5%, glucose syrup, WHEAT starch, raising agents (ammonium bicarbonate, sodium bicarbonate, disodium diphosphate), emulsifiers (SOY lecithin, sunflower lecithin), salt, skimmed MILK powder, lactose and MILK proteins, flavors, MAY CONTAIN EGG.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Mustard</t>
+          <t>Eggs, Gluten, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>wheat</t>
+          <t>egg, milk, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -2030,21 +2002,29 @@
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>eau minerale</t>
+          <t>Sourdough White Ciabattin</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7613036249928</t>
+          <t>https://world.openfoodfacts.org/product/5025125000006</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>natural mineral water</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
+          <t>Wheat Flour (Fortified with Calcium Carbonate, Iron, Niacin, Thiamin), Water, Salt, Fermented Wheat Flour.</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Gluten</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -2054,29 +2034,21 @@
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>Carbonara Buldak Spicy Ramen</t>
+          <t>Fine cut Oxford marmalade</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8801073113893</t>
+          <t>https://world.openfoodfacts.org/product/5035660138782</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>noodle (77,5%) { wheat flour , modified tapioca starch, refined palm oil, modified potato starch, refined salt, emulsifier [lecithin(e322(i))], acidity regulator [potassium carbonate(e501(i)), sodium carbonate(e500), sodium phosphate dibasic(e339(ii)), citric acid(e330)], thickener [guar gum (e412)], green tea flavor oil,} soup (12,7%) {water, artificial chicken flavor powder, soy sauce, white sugar, red pepper powder, chili pepper powder, soybean oil, onion, red pepper seed oil, garlic, modified potato starch, paprika extract, decolorized chilli extract, black pepper powder, curry powder,} powder (9,8%) {whole milk powder, white sugar, milk powder, salt, mozzarella cheese powder, butter powder, modified potato starch, curly parsley, pepper powder, garlic powder, soybean oil,}</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>Celery, Eggs, Fish, Gluten, Milk, Molluscs, Mustard, Nuts, Peanuts, Sesame Seeds, Soybeans</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>egg, fish, milk, peanut, sesame, shellfish, soy, tree nut, wheat</t>
-        </is>
-      </c>
+          <t>Glucose-Fructose Syrup, Seville Oranges, Sugar, Acid: Citric Acid, Acidity Regulator: Sodium Citrates, Gelling Agent: Pectin, Orange Oil.</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -2086,27 +2058,27 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>Shrimp Flavour</t>
+          <t>Breakfast sandwich biscuits hazelnut - cocoa</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8852018101055</t>
+          <t>https://world.openfoodfacts.org/product/0819019020271</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>WHEAT flour (GLUTEN), palm oil (palm oil, antioxidant: E306), salt, sugar, tapioca starch, modified tapioca starch, garlic, chilli 0.9%, flavour enhancers: E621, E635, acid: E330, maltodextrin, SOY sauce powder (SOYBEANS, glucose syrup, maltodextrin, colour: E150c), corn starch, FISH sauce (ANCHOVY extract [FISH], salt, sugar), seasoning (flavouring, maltodextrin, emulsifier: E322 [SOYBEAN], stabilizer: E414), onion, spring onion 0.1%, galangal 0.1%, SHRIMP (CRUSTACEANS) 0.1%, lemongrass 0.1%, anti-caking agent: E551</t>
+          <t>Whole Grain Flour, lupine, barley, cane sugar, sustainable palm oil, hazelnut paste, cocoa butter, cocoa powder, agave inulin, flaxseed flour, almonds, baking soda, sea salt, natural flavorings, sunflower lecithin</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Celery, Crustaceans, Fish, Gluten, Sesame Seeds, Soybeans, Crustaceans, Fish</t>
+          <t>Gluten, Lupin, Nuts</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>fish, sesame, shellfish, soy, wheat</t>
+          <t>milk, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -2118,27 +2090,27 @@
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>NYC BAGEL Sesame</t>
+          <t>Old English Medium Sliced White Bread</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5020364010151</t>
+          <t>https://world.openfoodfacts.org/product/5010044006529</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>WHEAT Flour (WHEAT Flour, Calcium Carbonate, Iron, Niacin, Thiamin), Water, SESAME Seeds (3%), Sugar, Yeast. Maize, Salt, Rapeseed Oil, Spirit Vinegar, sweet potato puree, Preservative (Calcium Propionate), Malted BARLEY Flour, Flour Treatment Agent (Ascorbic Acid)</t>
+          <t>Wheat Flour [with Calcium, Iron, Niacin (B3) and Thiamin (B1)], Water, Yeast, Liquid Concentrated Sponge Extract (Water, Wheat Flour, Yeast), Vegetable Oil (Rapeseed, Sustainable Palm), Salt, Fermented Wheat Flour, Soya Flour, Flour Treatment Agent: Ascorbic Acid (Vitamin C).</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Sesame Seeds</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>sesame, wheat</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -2150,21 +2122,25 @@
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>Coke Zero</t>
+          <t>Tortilla chips</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5449000214799</t>
+          <t>https://world.openfoodfacts.org/product/00414234</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>carbonated water, colouring (e150d), acidifier (phosphoric acid), sweeteners (aspartame, acesulfame-k), natural flavors, caffeine aroma, acidity regulator (sodium citrates)</t>
+          <t>Maize Flour Vegetable Oil (Sunflower/Rapeseed)</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -2174,17 +2150,17 @@
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>Badoit 1 L PET</t>
+          <t>Chick Peas in Salted Water</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3068320114453</t>
+          <t>https://world.openfoodfacts.org/product/5013635312160</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>natural mineral water with added carbon dioxide gas</t>
+          <t>Chick Peas (60%), Water, Salt.</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
@@ -2198,17 +2174,17 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>Strawberry Jam</t>
+          <t>Organic Sea Salt Tortilla Chips</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3045320094008</t>
+          <t>https://world.openfoodfacts.org/product/0815099021634</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>strawberries, sugar, cane sugar, concentrated lemon juice, gelling agent (fruit pectin),</t>
+          <t>organic whole ground corn, organic sunflower oil and/or organic safflower oil, sea salt,</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
@@ -2222,27 +2198,27 @@
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>Breizh Surimi saveur crabe x 10 sachets soit 30 bâtonnets</t>
+          <t>Premium Soy Sauce</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3521042206511</t>
+          <t>https://world.openfoodfacts.org/product/0078895126396</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>blue whiting (fish) 36,7%, water, rehydrated egg white, starches (gluten), potato starch, rapeseed oil, sugar, salt, natural flavour (crustaceans), colouring: paprika extract, possible mollusc traces,</t>
+          <t>Water, Soybeans 17.5%, Salt, Sugar, Wheat Flour.</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Crustaceans, Eggs, Fish, Gluten</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>egg, fish, shellfish, wheat</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -2254,27 +2230,27 @@
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>Pomme Noisette</t>
+          <t>PEANUT BUTTER SPREAD</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3175681851849</t>
+          <t>https://world.openfoodfacts.org/product/0051500243213</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>wheat flour 68,5 %, rapeseed oil, fruit sugar syrup, concentrated apple juice 5,3 %, roasted hazelnuts 5,3 %, wheat germ 5,2 %, chicory fibre: fructooligosaccharides, barley malt extract, natural apple flavour, emulsifier: rapeseed lecithins, wheat starch , baking powders (potassium tartrates, potassium carbonates), vitamins b1, b2, b6, b9, pp and e, made in a workshop that uses other nuts, lupine, milk, sesame and soy,</t>
+          <t>PEANUTS, SUGAR, PALM OIL, SALT, MOLASSES</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Nuts</t>
+          <t>Gluten, Nuts, Peanuts</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>milk, sesame, soy, tree nut, wheat</t>
+          <t>peanut, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -2286,27 +2262,27 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>Corn Flakes</t>
+          <t>Organic Bread 21 Whole Grains and Seeds</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20159917</t>
+          <t>https://world.openfoodfacts.org/product/0013764027053</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Maize, Sugar, Barley Malt Extract, Salt. Allergy Advice</t>
+          <t>organic whole wheat (organic whole wheat flour, organic cracked whole wheat), water, organic cane sugar, organic whole grains and seeds mix (organic whole flax seeds, organic sunflower seeds, organic tri-color quinoa (organic black quinoa, organic red quinoa, organic white quinoa), organic ground whole flax seeds, organic triticale, organic pumpkin seeds, organic rolled barley, organic rolled oats, organic rolled rye, organic blue cornmeal, organic millet, organic yellow cornmeal, organic kamut khorasan wheat, organic sorghum flour, organic buckwheat flour, organic quinoa, organic poppy seeds), organic wheat gluten, organic oat fiber, yeast, organic molasses, sea salt, organic cultured wheat flour, organic vinegar, organic acerola cherry powder, enzymes</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Milk, Peanuts</t>
+          <t>Gluten</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>milk, peanut, wheat</t>
+          <t>wheat</t>
         </is>
       </c>
     </row>
@@ -2318,27 +2294,27 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>28 bâtonnets de surimi</t>
+          <t>Grahams</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20466909</t>
+          <t>https://world.openfoodfacts.org/product/0044000004637</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>38% fish meat, water, starches (contains cereals containing gluten), rehydrated egg white, rapeseed oil, sugar, salt, natural flavours (contains crustaceans), colour: paprika extract,</t>
+          <t>UNBLEACHED ENRICHED FLOUR (WHEAT FLOUR, NIACIN, REDUCED IRON, THIAMINE MONONITRATE (VITAMIN B1), RIBOFLAVIN (VITAMIN B2), FOLIC ACID), GRAHAM FLOUR (WHOLE GRAIN WHEAT FLOUR), SUGAR, SOYBEAN AND/OR CANOLA OIL, HONEY, LEAVENING (BAKING SODA, CALCIUM PHOSPHATE), SALT, SOY LECITHIN, ARTIFICIAL FLAVOR, WHEAT, SOY.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Crustaceans, Eggs, Fish, Gluten</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>egg, fish, shellfish, wheat</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -2350,25 +2326,29 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>Tomato Ketchup</t>
+          <t>Barbecue Sauce</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/50457243</t>
+          <t>https://world.openfoodfacts.org/product/0013409918104</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Tomatoes, Spirit Vinegar, Sugar, Salt, Spice and Herb Extracts (contain Celery), Spice.</t>
+          <t>Sugars (glucose-fructose, con - centrated pineapple juice, refiners' molasses, sugar), Tomato paste, Vinegar, Water, Modified corn starch, Salt, Natural smoke flavour, Spices, Caramel colour, Sodium benzoate (preservative), Dried garlic, Mustard flour, Tamarind, Natural flavour, Celery seed. Contains: Mustard.</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Celery</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr"/>
+          <t>Celery, Mustard</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -2378,27 +2358,27 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>Poisson à l'andalouse riz safrané et courgettes grillées</t>
+          <t>Solid White Tuna Albacore</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3166352967037</t>
+          <t>https://world.openfoodfacts.org/product/08660533</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>fish 33.3% (white hake), cooked rice 21% (water, rice), grilled zucchini 14.5%, water, red peppers 6.3%, pre-fried onions 5% (including sunflower oil), peas 4.6%, virgin olive oil 2.6%, chorizo 1.6% (pork meat from france, pork fat, spices and aromatic plants, salt, natural flavors), pepper, wheat flour, spices and aromatic plants, salt, sunflower oil, garlic puree, tomato concentrate, saffron,</t>
+          <t>WHITE TUNA, WATER, VEGETABLE BROTH, SEA SALT.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Celery, Crustaceans, Eggs, Fish, Gluten, Milk, Molluscs, Mustard</t>
+          <t>Fish, Soybeans</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>egg, fish, milk, shellfish, wheat</t>
+          <t>fish, soy</t>
         </is>
       </c>
     </row>
@@ -2410,29 +2390,21 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>Brioche Tranchée Bio 400g</t>
+          <t>Organic Tortilla Chips</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3284230006408</t>
+          <t>https://world.openfoodfacts.org/product/0096619656493</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>WHEAT flour*/** 54%, whole EGGS*/** 14%, brown cane sugar*, sunflower oil*, sourdough* (water, WHEAT*/** 2% and RYE* flours, yeasts), WHEAT GLUTEN*, natural vanilla flavouring* (contains alcohol*), salt, yeast, vanilla extract*, deactivated yeast. Possible traces of milk, mustard and soya. *Ingredients from Organic Farming. **Ingredients from French fair trade.</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t>Eggs, Gluten</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="inlineStr">
-        <is>
-          <t>egg, milk, soy, wheat</t>
-        </is>
-      </c>
+          <t>Organic corn, organic vegetable oil (organic sunflower and/or organic canola oil), sea salt.</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -2442,21 +2414,29 @@
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>Dalaa 550 feuilles</t>
+          <t>Kinder Bueno</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111245591063</t>
+          <t>https://world.openfoodfacts.org/product/8000500037560</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>No Eco 0801 000 010 Dalaa Distribue par ES Rue lbnou Al Moutaz, res. Le Joyau I n1 etage, App. 2-Casablanca Tel 212 522 327 200-Fax 212 522 327 205 Fabrique par: Jeesr Industries Lot Al Baraka Rue Al Watassiyine Zone Industrielle BERRECHID-MAROC (212) 5 22 32 72 00ILG: (212) 5 22 32 72 05:S Tel 12121 5 223 Fax: (212) 5 22 32 72 05 Mouchoirs tres doux Jos 6111245 591063 SLA6 dalaa@novatis-group.com E-mail: dalaa@novatis-group.com</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
+          <t>milk chocolate 31,5 % (sugar, cocoa butter, cocoa mass, skimmed milk powder, concentrated butter, emulsifiers: lecithins [soya], vanillin), sugar, palm oil, wheat flour, ground hazelnuts 10,8%, skimmed milk powder, milk powder, dark chocolate (sugar, cocoa mass, cocoa butter, emulsifiers: lecithins [soya], vanillin), lean cocoa, emulsifiers: lecithins [soya], raising agents (sodium acid carbonate, ammonium acid carbonate), salt, vanillin,</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Gluten, Milk, Nuts, Soybeans</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>milk, soy, tree nut, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -2466,27 +2446,27 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>Lait</t>
+          <t>Bournville Dark Chocolate bar</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111266962187</t>
+          <t>https://world.openfoodfacts.org/product/7622210249661</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>fresh pasteurised semi-skimmed milk with 15g/l of fat</t>
+          <t>sugar, cocoa butter, cocoa mass, palm oil, emulsifiers (soya lecithin, e476),skimmed milk powder</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Milk, Soybeans</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>milk, soy</t>
         </is>
       </c>
     </row>
@@ -2498,27 +2478,27 @@
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>Jasons Sourdough</t>
+          <t>Jaffa Cakes</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5025125000129</t>
+          <t>https://world.openfoodfacts.org/product/20005573</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>Wheat Flour (Wheat Flour, Calcium Carbonate, Iron, Niacin, Thiamin), Water, Wholemeal Spelt (Wheat) Flour, Sprouted Spelt (Wheat) Grains (5%), Rye Flour, Salt, Fermented Wheat Flour.</t>
+          <t>sugar, glucose-fructose syrup, 15% orange juice from concentratetd orange juice, wheat flour, cocoa mass, 6% liquid whole egg, palm oil, cocoa butter, stabilisier: sorbitols, gelling agent: pectins, acid: citric acid, raising agents: sodium carbonates, diphosphates, whey powder (milk), emulsifiers: lecithins, mono - and diglycerides of fatty acids, natural orange flavouring, natural vanilla flavouring with other natural flavourings, salt, wheat starch,</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Gluten</t>
+          <t>Eggs, Gluten, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>wheat</t>
+          <t>egg, milk, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -2530,27 +2510,27 @@
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>Granola L'Original</t>
+          <t>Le Beurre Tendre Doux</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7622210601988</t>
+          <t>https://world.openfoodfacts.org/product/3451790988677</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>wheat flour 48%, milk chocolate 27% sugar, cocoa mass, cocoa butter, whey powder (from milk), skimmed milk powder, vegetable fats (palm, shea in varying proportions), concentrated butter, emulsifiers (soy lecithins, e476), lactose (milk), aromamel, vegetable oils (palm, copra), sugar, sugar syrup, wheat bran, baking powder (sodium carbonates, ammonium carbonates), salt, wheat germ, acidity regulator (citric acid), may contain eggs, nuts, sesame,</t>
+          <t>cream (origin france), milk fat , lactic ferments,</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Milk, Soybeans</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, sesame, soy, tree nut, wheat</t>
+          <t>milk</t>
         </is>
       </c>
     </row>
@@ -2562,29 +2542,21 @@
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>Biscoff à tartiner</t>
+          <t>SWEET &amp; SALTY POPCORN</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5410126006957</t>
+          <t>https://world.openfoodfacts.org/product/5060283760669</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>wheat flour, sugar, vegetable oils (palm oil, rapeseed oil), golden syrup, baking powder (sodium acid carbonate), soy flour, salt, cinnamon, rapeseed oil, sugar, emulsifier (soy lecithin), acidifier (citric acid)</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>Gluten, Soybeans</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>soy, wheat</t>
-        </is>
-      </c>
+          <t>Wholegrain corn (63%), rapeseed oil, demerara sugar, glazing agent (isomalt), sea salt.</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -2594,27 +2566,27 @@
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>Nutella</t>
+          <t>Creamy Peanut Butter</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/80177173</t>
+          <t>https://world.openfoodfacts.org/product/0051500720011</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Sugar, palm oil, _hazelnuts_ (13%), skimmed _milk_ powder (8,7%), fat-reduced cocoa (7,4%), emulsifier: lecithins (_soya_), vanillin.</t>
+          <t>roasted peanuts, sugar, molasses, fully hydrogenated vegetable oils (rapeseed and soybean), mono and diglycerides, salt</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts, Soybeans</t>
+          <t>Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>peanut, soy</t>
         </is>
       </c>
     </row>
@@ -2626,27 +2598,27 @@
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>Carottes rapees citron dnp 320g</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3083681148619</t>
+          <t>https://world.openfoodfacts.org/product/20005832</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Carottes 81%, eau, huile de colza, vinaigre d'alcool, sel, sucre jus de citran de Sicile 0,6%. MOUTARDE de Dijon, arome naturel de citron (BLE), amidon de pomme de terre, antioxydant: acide ascorbique, épaississants gomme de xanthane et gomme de guar, purée d'ail, arôme naturel de poivre. Fabriqué dans un atelier utilisant également céleri, œuf, lait, poisson, crustacé soja, fruits à coque. Conditionné sous atmosphère protectrice. A consommer rapidement après ouverture. A conserver entre 0°C et +4°C. Ne pas congeler.. On vous en dit plus sur nos origines Origin' Info VALEURS NUTRITIONNELLES POUR 100 g: Energie 301 kJ/</t>
+          <t>sugar, cocoa mass, cocoa butter, emulsifier (sunflower lecithins), vanilla extract</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Celery, Crustaceans, Eggs, Fish, Gluten, Milk, Mustard</t>
+          <t>Soybeans</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr">
         <is>
-          <t>egg, fish, milk, shellfish, soy, wheat</t>
+          <t>milk, soy</t>
         </is>
       </c>
     </row>
@@ -2658,17 +2630,17 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>Pulco Citron</t>
+          <t>Baked Beans</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3225350000501</t>
+          <t>https://world.openfoodfacts.org/product/5000232902450</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>water, concentrated juice: lemon 35.5% and orange 4.5% (equivalent to 40% reconstituted juice), lemon pulp 5%, acidifier: citric acid, natural lemon extract.</t>
+          <t>Beans (51%), Tomatoes (38%), Water, Sugar, Modified Maize Starch, Reduced Sodium Sea Salt, Spirit Vinegar, Salt, Paprika, White Pepper, Spices, Flavourings.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
@@ -2682,29 +2654,21 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>Le moelleux</t>
+          <t>Vitalite Dairy Free Spread</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3302740057052</t>
+          <t>https://world.openfoodfacts.org/product/5000373704289</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>fish meat 43%, water, starches (including wheat), rapeseed oil, sugar, salt, natural flavourings (contains crustaceans, molluscs, fish), colouring: paprika extract,</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>Crustaceans, Fish, Gluten, Molluscs</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>fish, shellfish, wheat</t>
-        </is>
-      </c>
+          <t>vegetable oils (sunflower (21%), rapeseed, palm), water, salt, emulsifiers (e471), sunflower lecithin, preservative (potassium sorbate), acid (lactic acid), vitamins (niacin, b6, b2, folic acid, b12), flavourings, colours (annatto, curcumin)</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -2714,27 +2678,27 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>Star moutarde</t>
+          <t>4 Fruity Teacakes</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111184004716</t>
+          <t>https://world.openfoodfacts.org/product/5010044001012</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>water, mustard seeds, table vinegar, salt, soybean oil, stabilizers (e412, eă15), preservative e224 and antioxidant e330</t>
+          <t>Wheat Flour [with Calcium, Iron, Niacin (B3) and Thiamin (B1)], Water, Dried Fruit Blend in varying proportions (13%) (Currants, Sultanas, Raisins), Sugar, Yeast, Vegetable Oil (Rapeseed, Sustainable Palm, Sunflower), Salt, Gelling Agent: E466, Emulsifiers: E471, E481, E472e, Soya Flour, Preservative: Calcium Propionate, Flour Treatment Agents: Ascorbic Acid (Vitamin C), E920 (Vegetarian)</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Mustard, Soybeans</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr">
         <is>
-          <t>soy</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -2746,17 +2710,17 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>coca cola 0,5</t>
+          <t>Original Taste</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/54491472</t>
+          <t>https://world.openfoodfacts.org/product/5449000054227</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>water, fructose-glucose syrup, carbon dioxide, colorant: e150d, acid: phosphoric acid, natural flavors, caffeine flavoring,</t>
+          <t>Water, fructose - glucose syrup, carbon dioxide, colorant: e150d, acid: phosphoric acid, natural flavorings (including caffeine).</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
@@ -2770,27 +2734,27 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>Cabillaud sauce Citron riz aux petits légumes</t>
+          <t>Peanut Butter</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3166353931402</t>
+          <t>https://world.openfoodfacts.org/product/0051500255162</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>cod 31%, water, fresh cream 5.3%, rapeseed oil, wheat flour, lemon concentrate 0.7%, lemon zest 0.2%, salt, sugar, lemon extract, turmeric, cooked rice 28.6% (rice, water), carrots 13.2%, broccoli 2.6%, rapeseed oil, shallots, lemon zest 0.5%, salt.</t>
+          <t>MADE FROM ROASTED PEANUTS AND SUGAR, CONTAINS 2% OR LESS OF: MOLASSES, FULLY HYDROGENATED VEGETABLE OILS (RAPESEED AND SOYBEAN), MONO AND DIGLYCERIDES, SALT.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Fish, Gluten, Milk</t>
+          <t>Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr">
         <is>
-          <t>fish, milk, wheat</t>
+          <t>peanut, soy</t>
         </is>
       </c>
     </row>
@@ -2802,27 +2766,27 @@
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>Excellence Noir Subtil Doux 70% Cacao</t>
+          <t>Keto cookies</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3046920029780</t>
+          <t>https://world.openfoodfacts.org/product/0787692523030</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>cocoa mass, sugar, cocoa butter, emulsifier (soya lecithin), vanilla, may contain hazelnuts, almonds, milk,</t>
+          <t>grain free flour blend (lupin flour, almond flour), pea protein, almond butter (roasted almonds), organic erythritol, coconut oil, palm fruit oil, chicory root fiber, desiccated coconut, sunflower lecithin, vegetable glycerine, natural flavor, xanthan gum, baking soda, gum acacia, stevoside (stevia extract), mixed tocopherols, allergens: contains lupin, almond and coconut,</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Soybeans</t>
+          <t>Lupin, Nuts</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>milk, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -2834,17 +2798,17 @@
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>S. Pellegrino Water</t>
+          <t>Love, Corn (Sea Salt)</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8002270014901</t>
+          <t>https://world.openfoodfacts.org/product/5060490400242</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>carbonated water 100%</t>
+          <t>Corn, sunflower oil, sea salt</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
@@ -2858,27 +2822,27 @@
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>Nutella</t>
+          <t>wholemeal sourdough bread</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/4008400401621</t>
+          <t>https://world.openfoodfacts.org/product/00363167</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>sugar, palm oil, hazelnuts (13%), skimmed milk powder (8,7%), fat-reduced cocoa (7,4%), emulsifier: lecithins (soya), vanillin</t>
+          <t>wholemeal british wheat flour, water, rapseed oil, sea salt, wheat gluten, extra virgin olive oil 1%, soya flour, fermented wheat flour, fortified wheat flour (wheat flour, calcium carbonate, iron, niacin, thiamin), wheat flour, flour treatment agent:ascorbic acid.</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts, Soybeans</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -2890,27 +2854,27 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>Cod Fish Fingers</t>
+          <t>Honey Nut Cheerios</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000116111947</t>
+          <t>https://world.openfoodfacts.org/product/0016000124790</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>Cod 58% (_Fish_), Breadcrumb Coating (_Wheat_ Flour, Water, Potato Starch, Salt, Paprika, Yeast, Turmeric), Rapeseed Oil.</t>
+          <t>Whole Grain Oats, Sugar, Corn Starch, Honey, Brown Sugar Syrup, Salt, Tripotassium Phosphate, Canola Oil, Natural Almond Flavor, Vitamin E, Calcium Carbonate, Vitamin C, sodium ascorbate, Iron, Zinc, mineral nutrients, niacinamide, Vitamin B6, pyridoxine hydrochloride, Vitamin B1, thiamin mononitrate, Vitamin A, palmitate, Vitamin B2, riboflavin, folic acid, Vitamin B13, Vitamin D3</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Fish, Gluten</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr">
         <is>
-          <t>fish, wheat</t>
+          <t>tree nut</t>
         </is>
       </c>
     </row>
@@ -2922,27 +2886,27 @@
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>Caramelised Onion &amp; Balsamic Vinegar Pea &amp; Bean Sticks</t>
+          <t>Pains au lait x10</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000328020792</t>
+          <t>https://world.openfoodfacts.org/product/3256540000698</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>POTATO STARCH, SUNFLOWER OIL, WHITE BEAN FLOUR (14%), PINTO BEAN FLOUR (13%), GREEN PEA FLOUR (13%), CARAMELISED ONION AND BALSAMIC VINEGAR SEASONING [SUGAR, SALT, ONION POWDER, FLAVOURING, SPICES, ACID (CITRIC ACID), GARLIC POWDER, FRUCTOSE, HERBS, TAMARIND POWDER, BALSAMIC VINEGAR POWDER, COLOUR (PAPRIKA EXTRACT)], SALT, POTASSIUM CHLORIDE, BEETROOT POWDER, SPINACH POWDER. ALLERGY ADVICE: MADE ON A LINE THAT ALSO HANDLES: MILK, BARLEY, GLUTEN, WHEAT, CELERY, SOYA, MUSTARD, EGG, CRUSTACEANS.</t>
+          <t>wheat flour 43%, sourdough 21%, wheat flour 11%, water, salt, fresh eggs 11%, sugar, pastry butter, rapeseed oil, yeast, skimmed milk powder equivalent to 10% reconstituted skimmed milk, emulsifier: mono and diglycerides of fatty acids, salt, wheat protein, wheat gluten, carrot extract, flavourings, antioxidant: ascorbic acid, milk protein</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Celery, Crustaceans, Eggs, Gluten, Milk, Mustard, Soybeans</t>
+          <t>Eggs, Gluten, Milk</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, shellfish, soy, wheat</t>
+          <t>egg, milk, wheat</t>
         </is>
       </c>
     </row>
@@ -2954,27 +2918,27 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>Napolitain l'Original</t>
+          <t>Organic Protein Protein Powder</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7622201809638</t>
+          <t>https://world.openfoodfacts.org/product/0851770007566</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>wheat flour 24%, sugar, palm oil, glucose-fructose syrup, eggs 7.5%, chocolate powder 6.5% (sugar, cocoa powder), stabilizers (glycerol, sorbitol), whey powder (milk), starches, glucose syrup, flavourings (contains alcohol), lean cocoa powder, rapeseed oil, baking powders (ammonium carbonates, diphosphates, sodium carbonates), cocoa butter, salt, shea fat, skimmed milk powder, emulsifiers (e472b, e472a, soy lecithins, e471, e473), thickener (xanthan gum), dye (e160a), concentrated butter, acidity regulators (sodium citrates, citric acid, tartaric acid), preservative (potassium sorbate),</t>
+          <t>ORGAIN ORGANIC PROTEIN BLEND (PEA PROTEIN, BROWN RICE PROTEIN, CHIA SEED), ORGAIN ORGANIC CREAMER BASE ACACA HIGH OLEIC SUNFLOWER OIL, RICE DEXTRIN, SUNFLOWER LECITHIN, ROSEMARY EXTRACT), ERYTHRITOL, NATURAL FLAVORS, ACACIA ORCAIN ORGANIC 50 SUPERFOODS BLEND MILLET, AMARANTH, BUCKWHEAT, QUINOA CHIA, KALE POWDER, APPLE PULP, CINNAMON, ORGANIC SPROUTS BLEND (AMARANTH SPROUT, QUINOA SPROUT, MILLET SPROUT, BUCKWHEAT SPROUT, GARBANZO BEAN SPROUT, LENTIL SPROUT, ADZUKI SPROUT FLAX SPROUT, SUNFLOWER SPROUT, PUMPKIN SPROUT, CHIA SPROUT, SESAME SPROUT), ORGANIC SUPER VEGGIES, SUPER BERRIES SUPER GRASSES AND SUPER FOODS BLEND (ACAI&amp;quot,, CRANBERRY, WHEAT GRASS, BARLEY GRASS, OAT GRASS, BANANA, MANGO, BEET, CARROT, SPINACH, BROCCOL TOMATO, KALE, CABBAGE, PARSLEY LEAF, BRUSSELS SPROUT, GREEN BELL PEPPER, CUCUMBER, CELERY, GARLIC, GINGER ROOT, GREEN ONION CAULIFLOWER, ASPARAGUS, PINEAPPLE, TURMERIC, STRAWBERRY&amp;quot,, TART CHERRY, BLACKBERRY, BLUEBERRY, RASPBERRY REBA STEVIA EXTRACT, SEA SALT, GUAR GUM, XANTHAN GUM, NATURAL FLAVOR, ORGANIC FOOD BASED VITAMIN C (AMLA FRUIT EXTRACT ORGANIC FOOD BASED VITAMIN BLEND (GUAVA, HOLY BASIL, LEMON EXTRACT), PROBIOTIC (BACILLUS COAGULANS)</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Gluten, Milk, Soybeans</t>
+          <t>Banana, Celery, Sesame Seeds</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, soy, wheat</t>
+          <t>sesame, wheat</t>
         </is>
       </c>
     </row>
@@ -2986,27 +2950,27 @@
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>Tofoo Naked</t>
+          <t>Granola Almond &amp; Super Berry</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5034467000216</t>
+          <t>https://world.openfoodfacts.org/product/9326666610485</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>Organic Tofu (Water, Organic _Soya_ Beans 36%, Nigari).</t>
+          <t>Whole Grains (56%) [Oats, Wheat, Triticale (Wheat, Rye), Barley], Golden Syrup (Sugar, Water), Nuts [Almond (7%), Peanut (2.5%)], Sunflower Oil, Rice Crisps (4%), Dried Berries [Sweetened Cranberry (3%), Blueberry (0.5%)], Psyllium Husk, Natural Flavours, Tapioca Starch, Salt, Antioxidant (Vitamin E). CONTAINS: WHEAT, GLUTEN, ALMOND, PEANUT. MAY CONTAIN: CASHEW, BRAZIL NUT, HAZELNUT, MACADAMIÁ, PECAN, PINE NUT, PISTACHIO, WALNUT, LUPIN, MILK, SESAME, SOY.</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Soybeans</t>
+          <t>Gluten, Lupin, Milk, Nuts, Peanuts, Sesame Seeds</t>
         </is>
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>soy</t>
+          <t>milk, peanut, sesame, soy, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -3018,21 +2982,29 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>Maizena Fleur de Maïs Sans Gluten 400g</t>
+          <t>Elegant collection a decadent 16 piece private reserve chocolate assortment, assortment</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8712100338694</t>
+          <t>https://world.openfoodfacts.org/product/0077260062512</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>corn starch</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr"/>
-      <c r="F86" s="2" t="inlineStr"/>
+          <t>Sugar, milk ingredients, corn syrup, cocoa butter, cocoa mass, brown sugar, palm kernel oil, water, almonds, hazelnuts, hydrogenated coconut oil, salt, soy lecithin, raspberries, coconut oil, honey, dried egg-white, coffee, flavour, artificial flavour, citric acid, lemon oil, tapioca flour, invertase, colour, baking soda, potassium sorbate, sodium benzoate.</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>Eggs, Milk, Nuts, Soybeans</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>egg, milk, soy, tree nut, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
@@ -3042,27 +3014,27 @@
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>Krisprolls complets sans sucres ajoutés</t>
+          <t>Chocolate Orange Milk</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7311070032611</t>
+          <t>https://world.openfoodfacts.org/product/3664346304863</t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>Whole wheat flour (62%), wheat flour, vegetable oils (fully hydrogenated rapeseed oil), barley malt, yeast, salt.</t>
+          <t>Sugar, cocoa mass, cocoa butter, skimmed milk powder, whey powder (from milk), vegetable fats (palm, shea), milk fat, emulsifiers (soya lecithins, E476), orange oil, flavouring. May contain nuts, wheat. MILK SOLIDS 14 % MINIMUM. COCOA SOLIDS 25% MINIMUM. CONTAINS VEGETABLE FATS IN ADDITION TO COCOA BUTTER. B Rec INSERT</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Gluten</t>
+          <t>Milk, Soybeans</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr">
         <is>
-          <t>wheat</t>
+          <t>milk, soy, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -3074,27 +3046,27 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>Sabra Houmous Extra</t>
+          <t>Bran Flakes</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7290104507045</t>
+          <t>https://world.openfoodfacts.org/product/20621483</t>
         </is>
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>cooked chickpeas (49%) (water, chickpeas, acidity regulator (sodium carbonate)), rapeseed oil, sesame seed paste (13%), water, pine nuts (2%), olive oil (1,5%), salt, acid (citric acid), spices, preservative (potassium sorbate)</t>
+          <t>80% Shredded Wholegrain Wheat, 16% Wheat Bran, Sugar, Barley Malt Extract, Salt, Honey.</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Sesame Seeds</t>
+          <t>Gluten</t>
         </is>
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>sesame, tree nut</t>
+          <t>wheat</t>
         </is>
       </c>
     </row>
@@ -3106,27 +3078,27 @@
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>Yaourt nature</t>
+          <t>Steamed prawn dim sum</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111242100206</t>
+          <t>https://world.openfoodfacts.org/product/00709842</t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>whole fresh milk, skimmed milk powder, starch, selected lactic ferment</t>
+          <t>Spread dim sum evenly in a steamer or basket lined with greaseproof paper, ensuring none are touching Place over boiling water, cover and steam Leave to stand for 1 min then serve immediately Do not reheat. STORAGE SUITABLE FOR FREEZING. For Use By, see front of pack. Keep refrigerated 0 C to +5 C. Freeze by date mark shown and use within 3 months. Once defrosted (in a refrigerator) eat within 24 hours. Defrost thoroughly before use. These dim sum are made with an authentic gelatinous rice pastry. Known as Har gow the pastry becomes translucent and sticky once cooked. nut allergy Tiger Prawns (Crustacean) (36%) Water Rice Flour Tapioca Flour Cornflour Courgette (2.5%) Water Chestnuts (2%) Chinese Chives Sugar Carrots Rehydrated Jelly Ear Mushrooms Salt Sesame Oil Ginger Garlic Yeast Extract (contains Barley) Shallots Onions Vegetable Oil (Sunflower/Rapeseed) Coriander Sweet Red Chillies Ground Green Peppercorns.</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Crustaceans, Gluten</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>sesame, shellfish, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -3138,21 +3110,29 @@
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>Eau Minérale Naturelle</t>
+          <t>Goldfish</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3057640257773</t>
+          <t>https://world.openfoodfacts.org/product/0014100085478</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>EAU MINÉRALE NATURELLE</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr"/>
-      <c r="F90" s="2" t="inlineStr"/>
+          <t>made with smiles and enriched wheat flour (flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), cheddar cheese ([cultured milk, salt, enzymes], annatto), canola and/or sunflower oils, contains 2 percent or less of: salt, yeast, sugar, autolyzed yeast, baking soda, monocalcium phosphate, paprika, spices, celery, onion powder, contains: wheat, milk,</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>Celery, Gluten, Milk</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="inlineStr">
+        <is>
+          <t>milk, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -3162,29 +3142,21 @@
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>Panda Brand Oyster Flavoured Sauce</t>
+          <t>5 rodzajów fasoli w sosie pomidorowym</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/0078895300024</t>
+          <t>https://world.openfoodfacts.org/product/5000157072023</t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
         <is>
-          <t>Water, sugar, salt, oyster extract 11% [oysters (molluscs) 90%, water, salt], salt, modified corn starch, flavour enhancer E621, wheat flour, colour E150a</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>Gluten, Molluscs</t>
-        </is>
-      </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>shellfish, wheat</t>
-        </is>
-      </c>
+          <t>Mixed beans in variable proportions (52%, Haricot beans, Pinto beans, Cannellini beans, Borlotti beans, Red Kidney beans), Tomatoes (37%), Water, Sugar, Modified Cornflour, Spirit Vinegar, Salt, Spice Extracts, Herb Extract</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -3194,21 +3166,29 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>Aicha Tomato Paste</t>
+          <t>Natural Creamy Peanut Butter</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111021090056</t>
+          <t>https://world.openfoodfacts.org/product/0051500017005</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>Tomatoes, salt, it is advisable to consume before : e see cover production date p : see cover store in a cool place after opening made in morocco</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr"/>
-      <c r="F92" s="2" t="inlineStr"/>
+          <t>PEANUTS, CONTAINS 1% OR LESS OF SALT.</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>Peanuts</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr">
+        <is>
+          <t>peanut</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -3218,27 +3198,27 @@
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>Seriously Good Times Mayonnaise</t>
+          <t>Creme Egg</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000157076410</t>
+          <t>https://world.openfoodfacts.org/product/7622210344205</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>rapeseed oil 68%, water, pasteurized egg yolk* 5%, spirit vinegar, sugar, starch, salt, mustard seeds, spices, antioxidant (calcium disodium edta).</t>
+          <t>sugar, milk , glucose syrup, cocoa butter, invert sugar syrup, whey powder ( milk ), cocoa mass, vegetable fats (palm, shea), emulsifier (e442), dried egg white, flavourings, colour (paprika extract),</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Mustard</t>
+          <t>Eggs, Milk</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>egg, milk</t>
         </is>
       </c>
     </row>
@@ -3250,22 +3230,22 @@
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>uht jaouda 1L</t>
+          <t>perly</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111242101180</t>
+          <t>https://world.openfoodfacts.org/product/6111242100992</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>whole milk</t>
+          <t>milk cream, cream, sugar, banana, bacteria</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Banana, Milk</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr">
@@ -3282,25 +3262,29 @@
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>Tomato Ketchup</t>
+          <t>Marmite Yeast Extract</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/50457236</t>
+          <t>https://world.openfoodfacts.org/product/50184453</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>tomatoes, spirit vinegar, sugar, salt, spice and herb extracts (contain _celery_), spice</t>
+          <t>yeast extract, barley, wheat, oats, rye, salt, vegetable juice concentrate, thiamin, riboflavin, niacin, vitamin B12, folic acid, natural flavouring, celery</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Celery</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr"/>
+          <t>Celery, Gluten</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -3310,29 +3294,21 @@
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>Thon entier au naturel</t>
+          <t>Tomato Ketchup</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20403027</t>
+          <t>https://world.openfoodfacts.org/product/0013000006057</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>tuna, water, table salt</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>fish</t>
-        </is>
-      </c>
+          <t>TOMATO CONCENTRATE FROM RED RIPE TOMATOES, DISTILLED VINEGAR, HIGH FRUCTOSE CORN SYRUP, CORN SYRUP, SALT, SPICE, ONION POWDER, NATURAL FLAVORING</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -3342,21 +3318,29 @@
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Chunk Light Tuna in Water</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5449000214911</t>
+          <t>https://world.openfoodfacts.org/product/08067308</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>carbonated water, sugar, coloring, e150d, acidifier, phosphoric acid, natural flavors (plant extracts, caffeine),</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr"/>
-      <c r="F97" s="2" t="inlineStr"/>
+          <t>LIGHT TUNA, WATER VEGETABLE BROTH, SALT. CONTAINS: FISH (TUNA)</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="inlineStr">
+        <is>
+          <t>fish</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
@@ -3366,27 +3350,27 @@
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>st hubert bio &amp; végétal</t>
+          <t>Lightly Breaded Chicken Breast Chunks</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3366321052386</t>
+          <t>https://world.openfoodfacts.org/product/0077013615514</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>organic vegetable oils 52% (oleic sunflower, rapeseed, coconut, shea, hazelnut), water, salt, emulsifier (organic soy lecithin), stabilizing (pectin),</t>
+          <t>BONELESS SKINLESS CHICKEN BREAS WATER, SEASONING (SUGAR, SALT, SPICES INCLUDING PAPRIKA AND CELERY, CHICKEN FAT, SPICE EXTRACTIVE, CANOLA OIL, SOYBEAN OIL), RICE STARCH. BREADED WITH: WHEAT FLOUR, SUGAR, SALT NONFAT DRY MILK. DRIED EGG WHITES, BAKING POWDER (SODIUM ACID PYROPHOSPHATE, SODIUM BICARBONATE, CORN STARCH, MONOCALCIUM PHOSPHATE), SPICE, PAPRIKA. BREADING SET IN VEGETABLE OIL. CONTAINS: MILK, EGGS, WHEAT.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Nuts, Soybeans</t>
+          <t>Celery, Eggs, Gluten, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr">
         <is>
-          <t>soy, tree nut</t>
+          <t>egg, milk, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -3398,29 +3382,21 @@
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>Mandeln</t>
+          <t>Coca-Cola Original Taste</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20724696</t>
+          <t>https://world.openfoodfacts.org/product/04963406</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>shelled almonds</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>Nuts</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>tree nut</t>
-        </is>
-      </c>
+          <t>carbonated water, high fructose corn syrup, caramel color, phosphoric acid, natural flavors, caffeine</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr"/>
+      <c r="F99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
@@ -3430,21 +3406,29 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>Asta</t>
+          <t>Original Crackers</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111101001361</t>
+          <t>https://world.openfoodfacts.org/product/0897580000106</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>r•ee z=CagStzaca - TéL: OS 22 621212</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr"/>
+          <t>brown rice, quinoa, flax seeds, sesame seeds, tamari (water, soybeans, salt, vinegar), sea salt.</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>Sesame Seeds, Soybeans</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>sesame, soy</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
@@ -3454,21 +3438,29 @@
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>Eau</t>
+          <t>Shrimp Seafood Burgers</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111251420166</t>
+          <t>https://world.openfoodfacts.org/product/00577335</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>natural mineral water</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr"/>
+          <t>shrimp, pollock, sunflower oil, rice flour, salt, garlic powder, spices. Contains pollock, shrimp.</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>Crustaceans, Fish</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>fish, shellfish, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
@@ -3478,27 +3470,27 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>Vanilla Ice Cream</t>
+          <t>organic GREEK YOGURT plain</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3415581101928</t>
+          <t>https://world.openfoodfacts.org/product/0096619483556</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>Fresh cream (39.2%), condensed skimmed milk, sugar, water, egg yolk, vanilla extract.</t>
+          <t>organic pasteurized grade a nonfat milk, live and active cultures (streptococcus thermophilus, lactobacillus bulgaricus, lactobacillus acidophilus, bifidus, lactobacillus casei).</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Milk</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>egg, milk</t>
+          <t>milk</t>
         </is>
       </c>
     </row>
@@ -3510,27 +3502,27 @@
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>Ramona's Heavenly Houmous</t>
+          <t>CHOCOLATE NUTRITION SHAKE</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5060228323799</t>
+          <t>https://world.openfoodfacts.org/product/0811620022118</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>COOKED CHICKPEAS (66%) (WATER, CHICKPEAS), RAPESEED OIL, WATER, TAHINI (SESAME SEED PASTE), SALT, ACIDITY REGULATOR: CITRIC ACID, MODIFIED MAIZE STARCH, GARLIC POWDER, PRESERVATIVE POTASSIUM SORBATE, SPICES.</t>
+          <t>Filtered lowfat grade A milk, alkalized cocoa, natural flavors, cellulose gel, cellulose gum, salt, carrageenan, lactase enzyme, monk fruit juice concentrate, acesulfame potassium, sucralose, stevia leaf extract, lactase enzyme, vitamin A palmitate, vitamin D3</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Sesame Seeds</t>
+          <t>Gluten, Milk</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>sesame</t>
+          <t>milk, wheat</t>
         </is>
       </c>
     </row>
@@ -3542,27 +3534,27 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>Weetabix</t>
+          <t>EZEKIEL 4:9 Sesame</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5010029000016</t>
+          <t>https://world.openfoodfacts.org/product/0073472001233</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>Wholegrain Wheat (95%), Malted Barley Extract, Sugar, Salt, Niacin, Iron, Riboflavin (B2), Thiamin (B1), Folic Acid.</t>
+          <t>Organic Sprouted Wheat, Filtered Water, Organic Sprouted Barley, Organic Sprouted Millet, Organic Malted Barley, Organic Sprouted Lentils, Organic Sprouted Soybeans, Organic Sprouted Spelt, Yeast, Organic Wheat Gluten, Sea Salt, Organic Sesame Seeds.</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Gluten</t>
+          <t>Gluten, Sesame Seeds, Soybeans</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>wheat</t>
+          <t>sesame, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -3574,27 +3566,27 @@
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>Pur beurre de cacahuète</t>
+          <t>Honey Wheat Bread</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3760020507350</t>
+          <t>https://world.openfoodfacts.org/product/0072250037068</t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>peanut puree</t>
+          <t>UNBLEACHED ENRICHED FLOUR (WHEAT FLOUR, MALTED BARLEY FLOUR, NIACIN, REDUCED IRON, THIAMIN MONONITRATE, RIBOFLAVIN, FOLIC ACID), WATER, WHOLE WHEAT FLOUR, HONEY, WHEAT GLUTEN, SUGAR, WHEAT BRAN, YEAST, CULTURED WHEAT FLOUR, SALT, SOY - BEAN OIL, SOY FLOUR, CALCIUM SULFATE, MONOGLYCERIDES, ENZYMES, MONOCALCIUM PHOSPHATE, SOY LECITHIN, ASCORBIC ACID, NIACIN, REDUCED IRON, THIAMIN MONONITRATE (VITAMIN B1), RIBOFLAVIN, FOLIC ACID, CALCIUM CARBONATE.</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Peanuts</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>peanut</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -3606,27 +3598,27 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>Fourrés Chocolat Noir</t>
+          <t>Stem ginger oat biscuits</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3229820100234</t>
+          <t>https://world.openfoodfacts.org/product/0061232201047</t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>_Wheat_ flour 39%, dark chocolate 25% (cocoa mass, cane sugar, cocoa butter), unrefined brown cane sugar, wholemeal _wheat_ flour 15%, oleic sunflower oil, natural vanilla flavouring, skimmed _milk_ powder, sea salt, raising agents: ammonium carbonates, sodium carbonates, thickener: acacia gum, antioxidant: rosemary extract.</t>
+          <t>Wholegrain Oats (64%), Brown Sugar, Sustainable Palm Fruit Oil, Stem Ginger (6.3%) (Stem Ginger, Sugar), Dietary Fibre (Oligofructose), Ground Ginger, Partially Inverted Refiners Syrup, Barley Malt Syrup, Raising Agent: Sodium Carbonates, Sea Salt. May contain traces of milk.</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Milk, Soybeans</t>
+          <t>Gluten</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, wheat</t>
+          <t>milk, wheat</t>
         </is>
       </c>
     </row>
@@ -3638,21 +3630,29 @@
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>Shot de gingembre bio</t>
+          <t>Breaded Panko Shrimp</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/4056489028109</t>
+          <t>https://world.openfoodfacts.org/product/0096619283545</t>
         </is>
       </c>
       <c r="D107" s="2" t="inlineStr">
         <is>
-          <t>Ginger Juice 25%, Lemon Juice 10%, Apple Juice 65%, Antioxidant: Ascorbic Acid.</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
+          <t>Shrimp, wheat flour, soybean oil, contains 2% or less of each of the following: citric acid, dextrose, dried garlic, leavening (sodium acid pyrophosphate, sodium bicarbonate), methylcellulose, modified corn starch, dried onion, paprika extract, rice starch, salt, soy flour, sugar, tapioca starch, dried whey, xanthan gum, dried yeast, yellow corn flour.</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Crustaceans, Gluten, Milk, Soybeans, Ble, Lait</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>milk, shellfish, soy, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
@@ -3662,27 +3662,27 @@
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>Protein Cacahuetes &amp; Chocolat</t>
+          <t>Peanut Butter Crunch</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8410076610737</t>
+          <t>https://world.openfoodfacts.org/product/0123456789012</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>roasted peanuts (39%), chicory root extract, isolated soy protein, chocolate pieces (8%) (sugar, cocoa paste, emulsifier: soy lecithin), sugar, vegetable fat: palm, whey (milk), sunflower oil, fructose, glucose syrup, peanut butter (2%), lean cocoa powder, tapioca starch, humectant: glycerol, salt, emulsifiers: sunflower and soybean lecithins, natural aromas, maltodextrin allergens: see ingredients in bold, may contain nuts and sunflower seeds, cocoa butter contains 4 servings</t>
+          <t>Unbleached enriched wheat flour [flour, barley malt, niacin (vitamin b3), iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid (vitamin b9)], water, sugar, yeast, wheat gluten, soybean oil, contains 2% or less of the following: salt, dough conditioners (mono - and diglycerides, sodium stearoyl lactylate, ethoxylated mono - and diglycerides, ascorbic acid), calcium propionate and sorbic acid (to retain freshness), yeast nutrients (calcium carbonate, calcium sulfate, monocalcium phosphate, ammonium sulfate), hydrogenated cottonseed oil, ground turmeric, soy lecithin.</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Milk, Peanuts, Soybeans</t>
+          <t>Gluten, Soybeans</t>
         </is>
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>milk, peanut, soy, tree nut</t>
+          <t>soy, wheat</t>
         </is>
       </c>
     </row>
@@ -3694,27 +3694,27 @@
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>Star moutarde 200 g</t>
+          <t>Creamy Peanut Butter</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111184000701</t>
+          <t>https://world.openfoodfacts.org/product/0034000400126</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>water, sesame seeds, salt, citric acid</t>
+          <t>Peanuts, Sugar, hydrogenated Vegetable Oil [rapeseed Oil, Cottonseed Oil, Soybean Oil], Salt, Peanut Oil, Monoglycerides, Molasses, Cornstarch.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Sesame Seeds</t>
+          <t>Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>sesame</t>
+          <t>peanut, soy</t>
         </is>
       </c>
     </row>
@@ -3726,27 +3726,27 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>Seed Sensations</t>
+          <t>Extra Virgin Olive Oil</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5010003064744</t>
+          <t>https://world.openfoodfacts.org/product/00358262</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>Wheat Flour (Calcium, Iron, Niacin, Thiamin), Water, Seed Mix 13% (Toasted Brown Linseed, Toasted Sunflower Seeds, Pumpkin Seeds, Sunflower Seeds, Millet Seeds, Golden Linseed, Poppy Seeds), Yeast, Wheat Protein, Salt, Soya Flour, Malted Barley Flour, Granulated Sugar, Barley Flour, Preservative (E282), Caramelised Sugar, Barley Fibre, Emulsifier (E472e), Flour Treatment Agent (Ascorbic Acid).</t>
+          <t>ORGANIC EXTRA VIRGIN OLIVE OIL.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Soybeans</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>soy, wheat</t>
+          <t>fish</t>
         </is>
       </c>
     </row>
@@ -3758,27 +3758,27 @@
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>Nesquik Cocoa</t>
+          <t>Peter's Yard Original Sourdough Crackers</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7613287431943</t>
+          <t>https://world.openfoodfacts.org/product/5060198820052</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>Sugar, Fat Reduced Cocoa Powder, Emulsifier From Plant Origin: Soya Lecithin, Salt, Vitamins (C, D), Natural Vanilla Flavor, Cinnamon</t>
+          <t>Milk , rye flour, wheat flour, sourdough 11.5% ( rye flour, water), wholewheat flour, honey, salt, yeast.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Soybeans</t>
+          <t>Gluten, Milk, Gluten</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>soy</t>
+          <t>milk, wheat</t>
         </is>
       </c>
     </row>
@@ -3790,21 +3790,29 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>Doce Extra Fresa Morango</t>
+          <t>Cioccolato al latte</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20000653</t>
+          <t>https://world.openfoodfacts.org/product/3017760363396</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>sugar, 50% strawberries, citric acid, pectins</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr"/>
-      <c r="F112" s="2" t="inlineStr"/>
+          <t>wheat flour, sugar, cocoa butter, cocoa mass, skimmed milk powder, vegetable fats (palm, coconut), glucose syrup, milk fat, whey powder (from milk), salt, emulsifier (soya lecithin), raising agent (e503), yeast, flavouring may contain nuts,</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>Gluten, Milk, Soybeans</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>milk, soy, tree nut, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
@@ -3814,29 +3822,21 @@
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>Plain Sardines</t>
+          <t>Apple Cider Vinegar</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3263670162219</t>
+          <t>https://world.openfoodfacts.org/product/0074305001321</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>Sardines,water,lemon pulp,salt.</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>fish</t>
-        </is>
-      </c>
+          <t>Certified Organic, Raw Apple Cider Vinegar and Purified Water</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
@@ -3846,27 +3846,27 @@
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>Nutella</t>
+          <t>Saveur Barbecue</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3017620422003</t>
+          <t>https://world.openfoodfacts.org/product/3245550078674</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>sugar, palm oil, hazelnuts 13%, low-fat cocoa 7.4%, skimmed milk powder 6.6%, whey powder, emulsifiers: lecithins [soya], vanillin, gluten-free,</t>
+          <t>SOYA flour (30%), tapioca starch, dehydrated potato (13%), sunflower oil, potato starch (5%), rice flour, lactose (MILK), sugar, onions, salt, natural flavouring (MILK), yeast extract, tomatoes, colour: paprika extract, acid: malic acid.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts, Soybeans</t>
+          <t>Celery, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F114" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut, wheat</t>
+          <t>milk, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -3878,29 +3878,21 @@
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>Gerblé cacao céréales</t>
+          <t>Pepsi Max</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3175681261372</t>
+          <t>https://world.openfoodfacts.org/product/3502110009357</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>wheat fanine 54.2% rapeseed oil, brown cane sugar, wheat germ 5.6%, lean cocoa powder 5%, wheat starch, wheat fiber, rice flour 3.1%, cocoa beans 1.5% concentrated lemon juice, oatmeal 0.5%, emulsifier: rapeseed lecithins, magnesium, barley malt extract, barley flour 0.1%, baking powder: sodium carbonates, made in a workshop that uses nuts, lupine, milk, sesame and soy,</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>Gluten, Lupin, Milk, Nuts, Sesame Seeds, Soybeans</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>milk, sesame, soy, tree nut, wheat</t>
-        </is>
-      </c>
+          <t>carbonated water,colour (caramel e150d),sweeteners (aspartame , acesulfame k),acidifiers (phosphoric acid, citric acid),acidity regulator (sodium citrate),flavourings (including plant extracts and caffeine), contains a source of phenylalanine,</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr"/>
+      <c r="F115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
@@ -3910,27 +3902,27 @@
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>Edelbitter 70% Cacao</t>
+          <t>Original Sandwich Spread</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20095291</t>
+          <t>https://world.openfoodfacts.org/product/5000157076021</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>Cocoa Mass, Sugar, Cocoa Butter, Emulsifier: Soya Lecithins, Vanilla Extract.</t>
+          <t>spirit vinegar, sugar, cabbage (contains preservative - sulphites), rapeseed oil, water, carrots, gherkins (contain firming agent - calcium chloride), modified cornflour, salt, onions, egg yolks, red peppers, mustard, stabilisers - guar gum and xanthan gum, spice extracts, spices, herb extract (contains celery), flavourings, colour - riboflavin. vegetables 35%.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Soybeans</t>
+          <t>Celery, Eggs, Mustard, Sulphur Dioxide And Sulphites</t>
         </is>
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>milk, soy</t>
+          <t>egg</t>
         </is>
       </c>
     </row>
@@ -3942,27 +3934,27 @@
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>Prince Goût Chocolat</t>
+          <t>Hummus</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7622210449283</t>
+          <t>https://world.openfoodfacts.org/product/0096619916245</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>WHEAT flour 35%, whole WHEAT flour 15.7%, sugar, vegetable oils (palm, rapeseed), low-fat cocoa powder 4.5%, glucose syrup, WHEAT starch, raising agents (ammonium bicarbonate, sodium bicarbonate, disodium diphosphate), emulsifiers (SOY lecithin, sunflower lecithin), salt, skimmed MILK powder, lactose and MILK proteins, flavors, MAY CONTAIN EGG.</t>
+          <t>ORGANIC CHICKPEAS, WATER, ORGANIC SESAME TAHINI, ORGANIC SUNFLOWER OIL, ORGANIC LEMON JUICE, ORGANIC GARLIC, SEA SALT, ORGANIC CUMIN. TOPPING: ORGANIC SUNFLOWER OIL, ORGANIC PINE NUTS, WATER, ORGANIC RED PEPPER, ORGANIC MINCED GARLIC, ORGANIC CUMIN, ORGANIC PARSLEY, SEA SALT, CITRIC ACID, ORGANIC ONION. CONTAINS: Pine Nuts, Sesame.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Gluten, Milk, Soybeans</t>
+          <t>Sesame Seeds</t>
         </is>
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, soy, wheat</t>
+          <t>sesame, tree nut</t>
         </is>
       </c>
     </row>
@@ -3974,27 +3966,27 @@
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>King cookies choco</t>
+          <t>Houmous</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111259343344</t>
+          <t>https://world.openfoodfacts.org/product/5000169090336</t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>Wheat flour, chocolate chips 20% (sugar, cocoa mass, cocoa butter, emulsifier: soy lecithin, natural vanilla flavour), sugar, glucose-fructose syrup, whey powder (milk), vegetable oils (palm, sunflower), cocoa powder, raising agents (sodium bicarbonate, ammonium bicarbonate), salt, flavour (vanilla)</t>
+          <t>Cooked chickpeas (48%) (water , chickpeas), water , sunflower oil, tahini (14%) (sesame seed paste), concentrated lemon juice, sea salt , garlic.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Milk, Soybeans</t>
+          <t>Sesame Seeds</t>
         </is>
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, wheat</t>
+          <t>sesame</t>
         </is>
       </c>
     </row>
@@ -4006,24 +3998,20 @@
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>Tomato Ketchup BIO</t>
+          <t>Sriracha Hot Chilli Sauce</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8715700407760</t>
+          <t>https://world.openfoodfacts.org/product/5020580016999</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>tomatoes (180 g per 100 g of ketchup), sugar, vinegar, salt, spices (contain celery), onion powder, garlic powder,</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>Celery</t>
-        </is>
-      </c>
+          <t>pickled red chilli 64% [chili, salt, acidity regulator (acetic acid)), sugar, water, garlic, salt, thickener (modified starch, xanthan gum), acidity regulator (acetic acid, citric acid), flavour enhancer (yeast extract), preservative (potassium sorbate), colour (paprika oleoresin).</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr"/>
       <c r="F119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
@@ -4034,21 +4022,29 @@
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>Original Taste</t>
+          <t>Fridge Pot Tuna Steak</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5449000054227</t>
+          <t>https://world.openfoodfacts.org/product/50171255</t>
         </is>
       </c>
       <c r="D120" s="2" t="inlineStr">
         <is>
-          <t>Water, fructose - glucose syrup, carbon dioxide, colorant: e150d, acid: phosphoric acid, natural flavorings (including caffeine).</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
+          <t>Tuna (93%), Spring Water, Salt.</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>Fish</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>fish</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
@@ -4058,27 +4054,27 @@
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>Pain de mie grandes tranches Seigle &amp; Graines 500g</t>
+          <t>Peanut Butter Spread</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3760049798609</t>
+          <t>https://world.openfoodfacts.org/product/0051500255650</t>
         </is>
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>wheat flour* 41%, water, brown flax seeds 6,1%, yellow flax seeds 6,1%, hulled sunflower seeds 6%, rye flour 5,1%, wheat gluten, roasted malted barley flour, yeast, barley malt extract, salt, vinegar, natural flavouring (contains alcohol), preservative: calcium propionate, antioxidant: acerola extract, possible traces of eggs, milk, sesame seeds, soya and mustard, * ingredient from french fair trade,</t>
+          <t>PEANUTS, SUGAR, PALM OIL, SALT, MOLASSES</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Gluten</t>
+          <t>Gluten, Nuts, Peanuts</t>
         </is>
       </c>
       <c r="F121" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, sesame, soy, wheat</t>
+          <t>peanut, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -4090,27 +4086,27 @@
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>Crousti'Son Miel Sésame</t>
+          <t>Freshly Baked Chocolat Croissant</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3175681026766</t>
+          <t>https://world.openfoodfacts.org/product/20048402</t>
         </is>
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>whole wheat flour 32.1%, wheat flour 27.8%, rapeseed oil, red cane sugar, chicory fibre: fructooligosaccharides, honey all flowers 5.2%, toasted sesame 5.2%, rice flour, natural flavour, oatmeal, rye flour, emulsifier: rapeseed lecithins, corn flour, baking powder (potassium tartrates, sodium carbonates, potassium carbonates), sea salt, , barley malt syrup, made in a workshop that uses nuts, lupin, eggs, milk protein and soy,</t>
+          <t>WHEAT FLOUR, BUTTER, WATER, CHOCOLATE (SUGAR, COCOA MASS, COCOA BUTTER, NATURAL VANILLA FLAVOR, SOY LECITHIN), SUGAR, YEAST, WHOLE MILK POWDER, SALT, WHEAT GLUTEN, RAPESEED OIL LECITHIN, EGG WASH (EGGS, WATER), ASCORBIC ACID, ENZYMES.</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Gluten, Lupin, Milk, Nuts, Sesame Seeds, Soybeans</t>
+          <t>Eggs, Gluten, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, sesame, soy, tree nut, wheat</t>
+          <t>egg, milk, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -4122,27 +4118,27 @@
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>Chocolat au lait</t>
+          <t>Swiss style muesli</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3045140105502</t>
+          <t>https://world.openfoodfacts.org/product/01771879</t>
         </is>
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>Sugar, Cocoa butter, Cocoa mass, Skimmed milk powder, Sweet whey powder (from milk), Concentrated butter, Emulsifier (Soya lecithine), Hazelnut Paste, Flavouring</t>
+          <t>Oat Flakes (40%), Malted Toasted Wheat Flakes (38%) ( Wheat , Barley Malt Extract), Sultanas (15%), Whey Powder (Cows' Milk ), Hazelnuts (2%), Almonds (1%).</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts, Soybeans</t>
+          <t>Gluten, Milk, Nuts</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>milk, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -4154,25 +4150,29 @@
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>Tomato Ketchup</t>
+          <t>Ancient Grains Probiotic Granola</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/87157215</t>
+          <t>https://world.openfoodfacts.org/product/0096619194261</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>tomatoes, vinegar, sugar, salt, extracts of herbs (celery), extracts of spices, spice</t>
+          <t>Whole grain rolled oats , cane sugar , soy oil , khorasan wheat, rolled spelt , almonds, inulin rice starch , rolled quinoa , rolled amaranth , sea salt, molasses , cinnamon , vanilla flavor , Probiotics (Bacillus coagulans GBI-30 6086), tocopherols (vitamin E). ORGANIC Contains soy, almonds and wheat Produced in a facility that uses peanuts and other tree nuts.</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Celery</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr"/>
+          <t>Gluten, Nuts, Soybeans</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr">
+        <is>
+          <t>peanut, soy, tree nut, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="inlineStr">
@@ -4182,21 +4182,29 @@
       </c>
       <c r="B125" s="2" t="inlineStr">
         <is>
-          <t>RICORE Original</t>
+          <t>Oats 'N Honey Granola Bars</t>
         </is>
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3033710073467</t>
+          <t>https://world.openfoodfacts.org/product/0016000264694</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>soluble coffee 33.2%, chicory fiber (oligofructose) 33%, soluble chicory 30%, magnesium sulfate,</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr"/>
-      <c r="F125" s="2" t="inlineStr"/>
+          <t>Whole Grain Oats, Sugar, Canola Oil, Rice Flour, Honey, Salt, Brown Sugar Syrup, Baking Soda, Soy Lecithin, Natural Flavor. CONTAINS SOY, MAY CONTAIN PEANUT, ALMOND AND PECAN INGREDIENTS Ceneral Mille 20706651</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>Gluten, Soybeans</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr">
+        <is>
+          <t>peanut, soy, tree nut, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
@@ -4206,27 +4214,27 @@
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>Extra dark 74% Cocoa</t>
+          <t>Caprice des Dieux</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20022464</t>
+          <t>https://world.openfoodfacts.org/product/3161711000622</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>cocoa mass, sugar, cocoa butter, fat reduced cocoa powder, emulsifier: lecithins (soya), natural vanilla flavouring, dark chocolate contains: cocoa solids 74% minimum,</t>
+          <t>pasteurized cow's milk of france, salt, lactic ferments (milk),</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Soybeans</t>
+          <t>Milk, Milk</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>milk, soy</t>
+          <t>milk</t>
         </is>
       </c>
     </row>
@@ -4238,21 +4246,29 @@
       </c>
       <c r="B127" s="2" t="inlineStr">
         <is>
-          <t>Baked Beans in a Rich Tomato Sauce</t>
+          <t>Panda Brand Oyster Sauce</t>
         </is>
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/4088600072517</t>
+          <t>https://world.openfoodfacts.org/product/0078895300017</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>haricot beans 50%, tomato 35%, water, sugar, modified maize starch, salt, onion powder, ground paprika, flavourings, paprika extract,</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr"/>
-      <c r="F127" s="2" t="inlineStr"/>
+          <t>Water, Sugar, Salt, Modified Corn Starch, Flavour Enhancer (E621), Oyster Extractives (3%), Wheat Flour , Colour (E150c).</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>Gluten, Molluscs</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>shellfish, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
@@ -4262,27 +4278,27 @@
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>FIBRES</t>
+          <t>Hazelnut Spread with Cocoa</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7300400481588</t>
+          <t>https://world.openfoodfacts.org/product/0009800895007</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>whole rye flour (57 g), wheat bran (27 g), oatmeal (13 g), sesame seeds (7.9 g), wheat germ, salt.</t>
+          <t>sugar, palm oil, hazelnuts, cocoa, skim milk, whey (milk), lecithin as emulsifier (soy), vanillin: an artificial flavor,</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Sesame Seeds</t>
+          <t>Milk, Nuts, Soybeans</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>sesame, wheat</t>
+          <t>milk, soy, tree nut</t>
         </is>
       </c>
     </row>
@@ -4294,22 +4310,22 @@
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>Sésame</t>
+          <t>Organic Protein Protein Powder</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3175680011480</t>
+          <t>https://world.openfoodfacts.org/product/0851770008631</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>Wheat flour, brown cane sugar, rapeseed oil, toasted sesame 10.6%, wheat germ 5.4%, whole wheat flour 5.4%, natural flavor, magnesium, emulsifier: lecithins, raising agents (potassium tartrates, sodium carbonates, ammonium carbonates), sea salt, wheat starch, vitamins (E, PP, B6, B1, B9).</t>
+          <t>ORGAIN ORGANIC PROTEIN BLENDT : PEA PROTEIN , BROWN RICE PROTEIN , CHIA SEED , ORGAIN ORGANIC CREAMER BASE : ACACIA HIGH OLEIC SUNFLOWER OIL , RICE DEXTRIN , SUNFLOWER LECITHIN , ROSEMARY EXTRACT), ERYTHRITOL, ACACIA, ALKALIZED COCOA ONNAMON, NATURAL FLAVOR ORGAIN ORGANIC 50 SUPERFOODS BLEND [MILLET, AMARANTH , BUCKWHEAT, QUINOA CHIA, KALE POWDER APPLE PULP, CINNAMON , ORGANIC SPROUTS BLEND (AMARANTH SPROUT , QUINOA SPROUT , MILLET SPROUT , BUCKWHEAT SPROUT , GARBANZO BEAN SPROUT , LENTILS SPROUT , ADZUKI SPROUT , FLAX SPROUT , SUNFLOWER SPROUT , PUMPKIN SPROUT , CHIA SPROUT , SESAME SPROUT ORGANIC SUPER VEGGIES SUPER BERRIES, SUPER GRASSES AND SUPER FOODS BLEND (ACAI , CRANBERRY , WHEAT GRASS, BARLEY GRASS, OAT GRASS, BANANA MANGO, BEET CARROT, SPINACH, BROCCOLI, TOMATO, KALE, CABBAGE, PARSLEY LEAF, BRUSSELS SPROUT, GREEN BELL PEPPER, CUCUMBER, CELERY, GARLIC, GINGER ROOT, GREEN ONION, CAULIFLOWER , ASPARAGUS , PINEAPPLE, TURMERIC, STRAWBERRY, TART CHERRY, BLACKBERRY, BLUEBERRY, RASPBERRY, REBAUDIOSIDE A (STEVIA EXTRACT), SEA SALT, GUAR GUM , NATURAL FLAVOR, XANTHAN GUM, ORGANIC FOOD BASED VITAMIN C (FRUIT EXTRACT), ORGANIC FOOD BASED B VITAMIN BLEND (GUAVA, HOLY BASIL, LEMON EXTRACT), PROBIOTIC (BACILLUS COACULANS)</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Sesame Seeds</t>
+          <t>Celery, Gluten, Sesame Seeds</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr">
@@ -4326,24 +4342,20 @@
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>Dijon Originale</t>
+          <t>Raspberry fruit spread, raspberry</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8712566134144</t>
+          <t>https://world.openfoodfacts.org/product/20000691</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>water, mustard seeds, spirit vinegar, salt, acid (citric acid), preservative (potassium metabisulphite).</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>Mustard, Metabisulphite</t>
-        </is>
-      </c>
+          <t>raspberries, sugar, glucose-fructose syrup, pectin, citric acid,</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
     </row>
     <row r="131">
@@ -4354,17 +4366,17 @@
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>Raspberry Conserve</t>
+          <t>APPLE CIDER VINEGAR</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3045320094084</t>
+          <t>https://world.openfoodfacts.org/product/0074305001161</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>raspberries, sugar, brown cane sugar, concentrated lemon juice, gelling agent: fruit pectin</t>
+          <t>ORGANIC APPLE CIDER VINEGAR, WATER.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
@@ -4378,27 +4390,27 @@
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>Nesquik</t>
+          <t>Dark Chocolate Nuts &amp; Sea Salt</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7613039490266</t>
+          <t>https://world.openfoodfacts.org/product/0602652176517</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>sugar, natural defatted cocoa powder 23%, emulsifier (soy lecithin), salt, vitamins (c, d), natural aroma, cinnamon,</t>
+          <t>Almonds, peanuts, chicory root fiber, honey, palm kernel oil, sugar, glucose syrup, rice flour, unsweetened chocolate, alkalized cocoa, sea salt, soy lecithin, natural flavor, cocoa butter</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Soybeans</t>
+          <t>Nuts, Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>soy</t>
+          <t>milk, peanut, soy, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -4410,27 +4422,27 @@
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>Atún claro en aceite de oliva</t>
+          <t>Multi-Grain Crackers 6-Seed</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8480000180025</t>
+          <t>https://world.openfoodfacts.org/product/0879890000694</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>light tuna, olive oil and salt.</t>
+          <t>brown rice flour, sesame seeds, potato starch, safflower oil, flax seeds, rice fiber, tamari soy sauce (soybeans, salt), quinoa seeds, amaranth seeds, millet, sea salt, chia seeds,</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Fish</t>
+          <t>Sesame Seeds, Soybeans</t>
         </is>
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>sesame, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -4442,29 +4454,25 @@
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>nutella</t>
+          <t>Classic Yellow Mustard</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/59032823</t>
+          <t>https://world.openfoodfacts.org/product/0041500000312</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>Sugar, Palm Oil, Hazelnuts (13%), Skim Milk Powder (8.7%), Cocoa (7.4%), Soy Lecithin As Emulsifier,Vanillin.</t>
+          <t>DISTILLED VINEGAR, WATER, MUSTARD SEED, SALT, TURMERIC, PAPRIKA, SPICE, NATURAL FLAVOR, GARLIC POWDER, : #1 GRADE.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts, Soybeans</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>milk, soy, tree nut</t>
-        </is>
-      </c>
+          <t>Mustard</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
@@ -4474,21 +4482,29 @@
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>Primevère bio doux tartine &amp; cuisson</t>
+          <t>The Ultimate Fish Stick</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3155250358788</t>
+          <t>https://world.openfoodfacts.org/product/0028029196443</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>organic non-hydrogenated vegetable oils 54,5% (colza, palm)', water, emulsifier: organic sunflower lecithin, salt, natural aromas, organic concentrated lemon juice,</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr"/>
-      <c r="F135" s="2" t="inlineStr"/>
+          <t>65% fish (alaska pollock), 35% batter &amp; breading (whole wheat flour, vegetable oil (soybean and/or canola), enriched wheat flour (wheat flour, niacin, iron, thiamine mononitrated, riboflavin, folic acid), water, contains 2% or less of: whole grain yellow corn meal, ranch seasoning (maltodextrin, salt, dehydrated onion, dehydrated garlic, disodium inosinate, disodium guanylate, natrual flavor (maltodextrin), modified food starch, buttermilk, natural flavor), corn starch, salt, vital wheat gluten, rice starch, yeast, leavening (cream of tartar, baking soda), tapioca starch, enriched and unrefined malted barley flour (malted barley flour, niacin, iron, thiamine mononitrate, riboflavin, folic acid)).</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>Fish, Gluten, Milk, Soybeans</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>fish, milk, soy, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
@@ -4498,20 +4514,24 @@
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>Green Tea</t>
+          <t>Original Beef Stick</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6923818812082</t>
+          <t>https://world.openfoodfacts.org/product/0856584004183</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>100% soluble coffee</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr"/>
+          <t>100% grass fed beef, water, sea salt, encapsulated lactic acid, cultured celery powder (celery powder, sea salt), black pepper, red pepper, granulated garlic, coriander, stuffed in beef collagen casings.</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>Celery</t>
+        </is>
+      </c>
       <c r="F136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
@@ -4522,17 +4542,17 @@
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>Brioche Tranchée Recette Classique</t>
+          <t>Tesco Finest All Butter Croissant 4 Pack</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3228857001316</t>
+          <t>https://world.openfoodfacts.org/product/5000436734345</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>wheat flour 54%, water, sugar 10.5%, fresh eggs 9.5%, glucose-fructose syrup, pastry butter, rapeseed oil, yeast, salt, egg yolk powder, rum, flavorings, plant extracts with coloring power (turmeric, paprika), wheat gluten, wheat fiber, aceola extract, may contain traces of soybeans, nuts and sesame seeds,</t>
+          <t>Wheat Flour (Wheat Flour, Calcium Carbonate, Iron, Niacin, Thiamin) Butter, Water, Sugar, Pasteurised Egg, Dried Skimmed Milk, Yeast, Salt, Inactive Wheat Sourdough, Acetoc Acid, Flour Treatment Agent (Ascorbic Acid), Lactic Acid.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
@@ -4542,7 +4562,7 @@
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, sesame, soy, tree nut, wheat</t>
+          <t>egg, milk, wheat</t>
         </is>
       </c>
     </row>
@@ -4554,21 +4574,29 @@
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>Coca Cola Original taste</t>
+          <t>The Original Cracker</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5449000000439</t>
+          <t>https://world.openfoodfacts.org/product/5000137487908</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>carbonated water, sugar, colour (caramel e150), acid (phosphoric acid), natural flavourings (including caffeine)</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr"/>
-      <c r="F138" s="2" t="inlineStr"/>
+          <t>Wheat flour, sunflower oil 22 %, sugar, glucose-fructose syrup, raising agents (calcium phosphates, ammonium carbonates, sodium carbonates, potassium carbonates), salt, barley malt flour. May contain egg, milk, sesame.</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>Gluten</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>egg, milk, sesame, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
@@ -4578,29 +4606,21 @@
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>Paëlla à la Valenciana</t>
+          <t>Sea Salt &amp; Balsamic Vinegar Crisps</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3270160697861</t>
+          <t>https://world.openfoodfacts.org/product/5017764128128</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>cooked yellow rice 49.3% (water, rice, turmeric), piece of roasted cooked chicken treated as a cured [chicken fillet or needle 5.9% (origin: eu), water, dextrose, salt],alaskan hake boneless quality (fish) 6%, salted shelled shrimp 5% (shrimp (crustaceans), salt), squid ring (molluscs) 5%, pea 5%, tomato, onion, red pepper 4%, chorizo 4% (pork meat (origin: eu), pork fat, salt, chilli, dextrose, spices and spice extracts, lactic ferments, preservative: sodium nitrite, antioxidant: sodium ascorbate), natural flavour (contains: crustaceans and molluscs), sunflower oil, extra virgin olive oil, salt,</t>
-        </is>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>Crustaceans, Fish, Milk, Molluscs</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>fish, milk, shellfish</t>
-        </is>
-      </c>
+          <t>select potatoes, vegetable oils (rapeseed oil, sunflower oil), seasoning with sea salt and balsamic vinegar of modena (sea salt, balsamic vinegar of modena potato maltodextrin, sugar, potato starch, acid: citric acid, natural flavourings).</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr"/>
+      <c r="F139" s="2" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
@@ -4610,27 +4630,27 @@
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>cruesly mélange de noix</t>
+          <t>sauce pimentée à l’ail</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3168930010265</t>
+          <t>https://world.openfoodfacts.org/product/0078895300031</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>whole oats 32%, whole wheat 18%, glucose syrup, sunflower oil, sugar, toasted almonds 4, 2%, hazelnuts 4%, oligofructose, pecans 1, 5%, wheat flour, rice flour, brazil nuts 1%, honey, natural flavours, antioxidant tocopherol, may contain traces of milk, soy and sesame.</t>
+          <t>Water, Sugar, Salt, Oyster Extract 11%, Flavour Enhancer E621, Modified Corn Starch, Wheat Flour, Colour E150c.</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Nuts, Avoine</t>
+          <t>Gluten, Molluscs</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>milk, sesame, soy, tree nut, wheat</t>
+          <t>shellfish, wheat</t>
         </is>
       </c>
     </row>
@@ -4642,17 +4662,17 @@
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>Coca-Cola original taste</t>
+          <t>CHOLULA HOT SAUCE</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/90338243</t>
+          <t>https://world.openfoodfacts.org/product/0049733830119</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>sparkling water, sugar, colouring (e150d), food (e308), natural flavourings (plant extracts),</t>
+          <t>WATER, SUGAR, DRIED CHILI PEPPERS (4.0%) (CHIPOTLE, GUAJILLO, ARBOL &amp; PIQUN), SALT, VINEGAR BLEND (SPIRIT VINEGAR, CIDER VINEGAR), SMOKE FLAVOURINGS, SPICES, STABILISER (XANTHAN GUM), ACID (CITRIC ACID), COLOUR (E150d)</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
@@ -4666,27 +4686,23 @@
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>Spreadable Slightly Salted</t>
+          <t>Organic Baked Beans</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5740900404465</t>
+          <t>https://world.openfoodfacts.org/product/5052910706706</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>butter (64%) (milk), rapeseed oil, water, lactic culture (milk), salt</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>Milk</t>
-        </is>
-      </c>
+          <t>Organic Haricot Beans (53%), Organic Tomato Purée (21%), Water , Organic Sugar, Organic Maize Starch, Salt , Organic Onion Powder, Organic Rice Flour, Acidity Regulator (Citric Acid), Organic Paprika, Organic Chilli Powder, Organic Garlic Powder.</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr"/>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>wheat</t>
         </is>
       </c>
     </row>
@@ -4698,17 +4714,17 @@
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>Eau De Source</t>
+          <t>Juicy Oranges Whole Fruit Squash</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3274080005003</t>
+          <t>https://world.openfoodfacts.org/product/5023762000137</t>
         </is>
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>Eau de source Noemie Calcium Ca2+ 113 mg/l Magnesium Mg2+ 228 mg/l Sodium Na 7 mg/l Potassium K 2 mg/l Silice SiOz 15 mg/l Bicarbonates HCO3 - 447 mg/l Sulfates SO42 - 53 mg/l Chlorure Cl - 8 mg/l Nitrates NO3 - &amp;lt,2 mg/l Fluor F - &amp;lt,1 mg/l pH 7.3</t>
+          <t>Water, Cane Sugar, Whole Oranges (11%), Citric Acid, Orange Oil.</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr"/>
@@ -4722,27 +4738,27 @@
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>Sourdough White Ciabattin</t>
+          <t>Milk Chocolate Large Bar</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5025125000006</t>
+          <t>https://world.openfoodfacts.org/product/7622210496645</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>Wheat Flour (Fortified with Calcium Carbonate, Iron, Niacin, Thiamin), Water, Salt, Fermented Wheat Flour.</t>
+          <t>sugar, whole milk powder, cocoa butter, cocoa mass, honey (3,0%), milk fat, almonds (1,6%), emulsifier (soya lecithin), egg white, flavouring, milk chocolate: cocoa solids 28% minimum, milk solids 14% minimum,</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Gluten</t>
+          <t>Eggs, Milk, Nuts, Soybeans</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>wheat</t>
+          <t>egg, milk, soy, tree nut</t>
         </is>
       </c>
     </row>
@@ -4754,29 +4770,21 @@
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>Toffifee 15er</t>
+          <t>Rosii Cirio Diced Tomatoes</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/4014400400007</t>
+          <t>https://world.openfoodfacts.org/product/8000320010118</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>sugar, vegetable fats (palm, shea), hazelnuts, glucose syrup, skimmed milk powder, humectant sorbitol syrup, cocoa mass, condensed skimmed milk, condensed sweet whey, lactose, skimmed cocoa, cocoa butter, clarified butter, cane sugar syrup, whey product, emulsifier lecithins (soy), salt, flavourings, may also contain almond, peanut and other nuts,</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>Milk, Nuts, Peanuts, Soybeans, Milk, Milk, Milk, Milk, Milk</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>milk, peanut, soy, tree nut</t>
-        </is>
-      </c>
+          <t>chopped tomatoes, tomato paste, salt, acidity regulator: citric acid,</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr"/>
+      <c r="F145" s="2" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
@@ -4786,27 +4794,27 @@
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>Harrys brioche tressee nature au sucre perle sans additifs 500g</t>
+          <t>Organic Creamy Peanut Butter</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3228857001231</t>
+          <t>https://world.openfoodfacts.org/product/0096619555505</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>wheat flour 52%, eggs 12%, water, rapeseed oil 11%, sugar 9%, glucose-fructose syrup, sugar beaded 2,4% (sugar, vegetable fat : shea butter, aroma), wheat gluten, yeast, flavourings including orange flower (contains alcohol), vegetable extracts for coloring (turmeric, paprika), salt, fiber of wheat, flour, malted barley extract, acerola, may contain traces of soy, milk, fruits nuts and sesame seeds,</t>
+          <t>Dry roasted organic peanuts, sea salt</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Gluten</t>
+          <t>Peanuts</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, sesame, soy, tree nut, wheat</t>
+          <t>peanut</t>
         </is>
       </c>
     </row>
@@ -4818,27 +4826,27 @@
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>Celeri fromage blanc dnp 320g</t>
+          <t>Velouté de légumes</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3083681148640</t>
+          <t>https://world.openfoodfacts.org/product/3036811460259</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>celery (72%), rapeseed oil, cottage cheese (6,5%), (pasteurized skimmed milk, lactic ferments), water, dijon mustard (water, mustard seeds, alcohol vinegar, salt), alcohol vinegar, egg yolk powder, sugar, salt, thickener: xanthan gum, guar gum,</t>
+          <t>water, carrot 26%, leek 10%, onion 5.7%, potato 5.7%, tomato puree 2.1%, pumpkin, celeriac, cooking butter, fresh cream, salt, natural pepper extract,</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Celery, Crustaceans, Eggs, Fish, Gluten, Milk, Mustard</t>
+          <t>Celery, Gluten, Milk</t>
         </is>
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>egg, fish, milk, shellfish, wheat</t>
+          <t>milk, wheat</t>
         </is>
       </c>
     </row>
@@ -4850,27 +4858,27 @@
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>14 Maxi Tranches complet sans sucres ajoutés</t>
+          <t>Bagels Everything</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3029330022428</t>
+          <t>https://world.openfoodfacts.org/product/0048121253196</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>Ingrédients: Farine complète de blé (63%), eau, farine de blé (2,2%), huile de colza, levure, arôme naturel (contient alcool), sel, farine de maïs fermentée, gluten de blé, jus d'acérola en poudre. Présence possible de: Lait, œufs, graines de sésame.</t>
+          <t>ENRICHED WHEAT FLOUR (FLOUR, MALTED LEY FLOUR, REDUCED IRON, NIACIN, THIAMIN MONONTRATE (VITAMIN B1), RIBOFLAVIN (VITAMIN B2), FOLIC ACID, WATER, SUGAR, SUNFLOWER SEEDS, YEAST, WHEAT GLUTEN, SESAME SEEDS, ONION, SALT, CORNMEAL, CALCIUM PROPIONATE, SORBIC ACID, POPPY SEEDS, MONO AND DIGLYCERIDES, GARLIC, CITRIC ACID, GUAR GUM, MALTODEXTRIN, soybean OIL, CELLULOSE GUM, CORNSTARCH, ALGIN, SOY LECITHIN.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Gluten</t>
+          <t>Gluten, Sesame Seeds, Soybeans</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>milk, wheat</t>
+          <t>sesame, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -4882,27 +4890,27 @@
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>Pâte à tartiner noisettes et cacao</t>
+          <t>PEANUT BUTTER CREAMY</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3608580065340</t>
+          <t>https://world.openfoodfacts.org/product/0037600110754</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>sugar, hazelnuts 20%, vegetable oils (sunflower, rapeseed), skimmed milk powder, low-fat cocoa powder 5.5%, cocoa butter, emulsifier: sunflower lecithin, vanilla extract, may contain other nuts,</t>
+          <t>roasted peanuts, sugar, hydrogenated vegetable oil (cottonseed, soybean and rapeseed oil) to prevent separation, salt.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts</t>
+          <t>Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
-          <t>milk, tree nut</t>
+          <t>peanut, soy</t>
         </is>
       </c>
     </row>
@@ -4914,21 +4922,29 @@
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>Ain Saiss Eau Minerale Naturelle</t>
+          <t>Fruit &amp; Seed Oatcakes</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111128000163</t>
+          <t>https://world.openfoodfacts.org/product/0612322000202</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>calcium : 63,5 magnésium : 35,5 nitratex : 7 sodium 8 chlorures : 19,8 sulfate : 3,8 bicarbonate : 372 potassium : 1</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
+          <t>Wholegrain Oats (68%), Currants (12%) (Currants, Sunflower Oil), Brown Sugar, Sustainable Palm Fruit Oil, Brown Flaxseeds (6%), Raising Agent: Sodium Bicarbonate, Sea Salt.</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Gluten</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
@@ -4938,29 +4954,21 @@
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>Fourrés Chocolat au Lait</t>
+          <t>Organic Quinoa &amp; Brown Rice with Garlic</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3229820181950</t>
+          <t>https://world.openfoodfacts.org/product/0748404287947</t>
         </is>
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>_wheat_ flour* 39%, milk chocolate* 25% (unrefined cane sugar*, cocoa butter*, whole _milk_* powder, cocoa paste*), unrefined brown cane sugar*, whole _wheat_ flour* 15%, oleic sunflower oil*, natural vanilla flavour, skimmed _milk_* powder, unrefined sea salt, baking powders: ammonium carbonates, sodium carbonates, thickener: acacia gum*, antioxidant: rosemary extract*, * organic ingredients</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>Gluten, Milk, Mustard, Sesame Seeds</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>milk, sesame, wheat</t>
-        </is>
-      </c>
+          <t>WATER, WHOLE GRAIN BROWN RICE, BLEND OF WHOLE GRAIN QUINOA (WHOLE GRAIN RED QUINOA, WHOLE GRAIN BLACK QUINOA), SUNFLOWER OIL, SEA SALT, GARLIC POWDER, DEHYDRATED GARLIC, ONION POWDER, MINCED GARLIC, PARSLEY, BLACK PEPPER</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="inlineStr">
@@ -4970,27 +4978,27 @@
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>Thin Bagels Seeded Soft &amp; Sliced</t>
+          <t>Smoked Trout Fillets</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5010044007588</t>
+          <t>https://world.openfoodfacts.org/product/00444057</t>
         </is>
       </c>
       <c r="D152" s="2" t="inlineStr">
         <is>
-          <t>Wheat Flour [with Calcium, Iron, Niacin (B3) and Thiamin (B1)], Water, Pulse Blend (11%) (Navy Bean Flour, Chickpea Flour, Pea Protein, Pea Fibre), Seed Mix (4.5%) (Sesame Seed, Sunflower Seed, Brown Linseed, Millet Seed, Poppy Seed), Wheat Gluten, Yeast, Malted Wheat Flour, Malted Barley Flour, Salt, Emulsífiers: E472e, E481, Preservative: Calcium Propionate, Gelling Agent: E466, Maíze, Soya Flour, Rice Flour, Acidity Regulator: Citric Acid, Flour Treatment Agents: Ascorbic Acid (Vitamin C), E920</t>
+          <t>trout fillets, canola oil, salt, hardwood smoke may contain traces of milk, egg, soy, wheat, herring, tuna, lobster.</t>
         </is>
       </c>
       <c r="E152" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Sesame Seeds, Soybeans</t>
+          <t>Crustaceans, Fish</t>
         </is>
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>sesame, soy, wheat</t>
+          <t>egg, fish, milk, shellfish, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -5002,27 +5010,27 @@
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>Tuc Original</t>
+          <t>Marinated King Prawns</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5410041001204</t>
+          <t>https://world.openfoodfacts.org/product/00699891</t>
         </is>
       </c>
       <c r="D153" s="2" t="inlineStr">
         <is>
-          <t>_WHEAT_ flour, palm oil, glucose syrup, _BARLEY_ malt extract, raising agents (ammonium carbonates, sodium carbonates), salt, _EGGS_, flavouring, flour treatment agent (sodium _METABISULFITE_).</t>
+          <t>King Prawns (Crustacean) (58%). Sweet Chilli Dipping Sauce (36%) (Sugar Water Rice Wine Vinegar Red Chillies Garlic Purée Cornflour Ground Paprika Salt). Salt. Coriander Ginger Purée Red Chillies Rapeseed Oil Sugar. Red Bell Peppers Ground Paprika Cornflour Cracked Black Pepper Garlic Purée. .</t>
         </is>
       </c>
       <c r="E153" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Gluten, Sulphur Dioxide And Sulphites</t>
+          <t>Crustaceans</t>
         </is>
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>egg, wheat</t>
+          <t>shellfish</t>
         </is>
       </c>
     </row>
@@ -5034,27 +5042,27 @@
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>Worcestershire Sauce</t>
+          <t>Granola L'Original</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000111041836</t>
+          <t>https://world.openfoodfacts.org/product/7622210601988</t>
         </is>
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>Malt Vinegar (from Barley), Spirit Vinegar, Molasses, Sugar, Salt, Anchovies (Fish), Tamarind Extract, Onions, Garlic, Spice, Flavourings.</t>
+          <t>wheat flour 48%, milk chocolate 27% sugar, cocoa mass, cocoa butter, whey powder (from milk), skimmed milk powder, vegetable fats (palm, shea in varying proportions), concentrated butter, emulsifiers (soy lecithins, e476), lactose (milk), aromamel, vegetable oils (palm, copra), sugar, sugar syrup, wheat bran, baking powder (sodium carbonates, ammonium carbonates), salt, wheat germ, acidity regulator (citric acid), may contain eggs, nuts, sesame,</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr">
         <is>
-          <t>Fish, Gluten</t>
+          <t>Gluten, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>fish, wheat</t>
+          <t>egg, milk, sesame, soy, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -5066,29 +5074,21 @@
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>Sardines Huile d'Olive Vierge Extra</t>
+          <t>BEANZ In a rich tomato sauce NO ADDED SUGAR</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3019081238643</t>
+          <t>https://world.openfoodfacts.org/product/5000157078773</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>sardines , extra virgin olive oil, salt,</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>fish</t>
-        </is>
-      </c>
+          <t>Beans (50%), Tomatoes (37%), Water, Modified Cornflour, Spirit Vinegar, Salt, Natural Flavouring, Spice Extracts, Sweetener - Steviol Glycosides, Herb Extract. Contains naturally occuring sugars.</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr"/>
+      <c r="F155" s="2" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
@@ -5098,27 +5098,27 @@
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>Notenmix Mélange de Noix ongebrand - non grillé</t>
+          <t>Peanut Butter</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20047238</t>
+          <t>https://world.openfoodfacts.org/product/0037600106252</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>25% Walnusskerne, 25% Haselnusskerne, 25% Cashewkerne, 25% blanchierte Mandeln.</t>
+          <t>ROASTED PEANUTS, SUGAR, HYDROGENATED VEGETABLE OIL (COTTONSEED, SOYBEAN AND RAPESEED OIL) TO PREVENT SEPARATION, SALT.</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Nuts</t>
+          <t>Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>tree nut</t>
+          <t>peanut, soy</t>
         </is>
       </c>
     </row>
@@ -5130,29 +5130,21 @@
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>Be Nuts! Pâte à tartiner Cacahuète</t>
+          <t>Beanz in a rich tomato sauce</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3608580124108</t>
+          <t>https://world.openfoodfacts.org/product/5000157024855</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>roasted peanuts 85%, sugar, cocoa butter, sunflower oil, salt, vanilla extract, emulsifier: sunflower lecithin, may contain nuts and sesame seeds,</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>Peanuts</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>milk, peanut, sesame, tree nut</t>
-        </is>
-      </c>
+          <t>Beans (50%), Tomatoes (36%), Water, Sugar, Spirit Vinegar, Modified Cornflour, Salt, Spice Extracts, Herb Extract</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr"/>
+      <c r="F157" s="2" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
@@ -5162,27 +5154,27 @@
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>Smooth Peanut Butter</t>
+          <t>Unsalted Mixed Nuts</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5014213711306</t>
+          <t>https://world.openfoodfacts.org/product/0096619885718</t>
         </is>
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>Roasted Peanuts (100%).</t>
+          <t>Cashews, Almonds, Pistachios, Pecans, Highly refined peanut oil. May contain: Peanuts, Other tree nuts, Milk, Sesame, Soy, Wheat, Mustard, Sulfites.</t>
         </is>
       </c>
       <c r="E158" s="2" t="inlineStr">
         <is>
-          <t>Peanuts</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="F158" s="2" t="inlineStr">
         <is>
-          <t>peanut</t>
+          <t>milk, peanut, sesame, soy, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -5194,29 +5186,21 @@
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>Almond Drink</t>
+          <t>Raw kimchi</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/4056489346357</t>
+          <t>https://world.openfoodfacts.org/product/5010292961182</t>
         </is>
       </c>
       <c r="D159" s="2" t="inlineStr">
         <is>
-          <t>water, 2,3% almonds', maltodextrins', sea salt, stabilizers: carob seed flour, gellanic gum, emulsifier: sunflower lecithin', natural aroma, 'from organic farming</t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>Gluten, Nuts</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>tree nut, wheat</t>
-        </is>
-      </c>
+          <t>Chinese Leaf Cabbage, Carrots, Spring Onion, Sea Salt, Chilli Powder, Ginger, Garlic.</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr"/>
+      <c r="F159" s="2" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
@@ -5226,27 +5210,27 @@
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>Seeded Batch</t>
+          <t>Thon entier au naturel</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5010044002552</t>
+          <t>https://world.openfoodfacts.org/product/20403027</t>
         </is>
       </c>
       <c r="D160" s="2" t="inlineStr">
         <is>
-          <t>Wheat Flour [with Calcium, Iron, Niacin (B3) and Thiamin (B1)], Water, Seed Mix (15%) (Sesame Seed, Brown Linseed, Sunflower Seed, Millet Seed, Poppy Seed), Yeast, Malted Barley Flour, Vegetable Oils (Rapeseed and Sustainable Palm), Sugar, Salt, Wheat Gluten, Soya Flour, Emulsifiers: E472e, E471, E481, Preservative: Calcium Propionate, Flour Treatment Agent: Ascorbic Acid (Vitamin C).</t>
+          <t>tuna, water, table salt</t>
         </is>
       </c>
       <c r="E160" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Sesame Seeds, Soybeans</t>
+          <t>Fish</t>
         </is>
       </c>
       <c r="F160" s="2" t="inlineStr">
         <is>
-          <t>sesame, soy, wheat</t>
+          <t>fish</t>
         </is>
       </c>
     </row>
@@ -5258,27 +5242,27 @@
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>Geröstete Mandel Ohne Zucker</t>
+          <t>Premium Oyster Sauce</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5411188112709</t>
+          <t>https://world.openfoodfacts.org/product/0078895100013</t>
         </is>
       </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>water, almond (2,3%), sugar, calcium (tri - calcium phosphate), sea salt, stabilisers (locust bean gum, gellan gum), emulsifier (lecithins), natural flavouring, vitamins (b2, b12, e, d2),</t>
+          <t>Oyster Extract 40% [ Oysters ( Molluscs ) 90%, Water, Salt], Sugar, Water, Salt, Modified Corn Starch, Wheat Flour, Colour (Plain Caramel), Yeast Extract (Yeast Extract, Salt), Flavour Enhancers (Disodium Inosinate, Disodium Guanylate).</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr">
         <is>
-          <t>Nuts</t>
+          <t>Gluten, Molluscs</t>
         </is>
       </c>
       <c r="F161" s="2" t="inlineStr">
         <is>
-          <t>tree nut</t>
+          <t>shellfish, wheat</t>
         </is>
       </c>
     </row>
@@ -5290,29 +5274,21 @@
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>Filets de Maquereaux au Vin Blanc</t>
+          <t>Tilda Steamed Brown Basmati Rice</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3165958350014</t>
+          <t>https://world.openfoodfacts.org/product/5011157888132</t>
         </is>
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>mackerel fillets (60%), water, vegetables in variable proportion (10%) (pickle, carrot, red pepper, onion), white wine vinegar, alcohol vinegar, white wine (1.8%), salt, parsley (0.5%), natural flavors,</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>Fish</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>fish</t>
-        </is>
-      </c>
+          <t>Natural Basmati Rice - Cooked (98%), Rice Bran Oil, Salt.</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr"/>
+      <c r="F162" s="2" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
@@ -5322,29 +5298,21 @@
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>Crunchy Organic Peanut Butter</t>
+          <t>Geeta's Mango Chutney imp</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5013665108320</t>
+          <t>https://world.openfoodfacts.org/product/5021185201223</t>
         </is>
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>roasted organic _peanuts_ (95%), organic sustainable palm oil, sea salt.</t>
-        </is>
-      </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>Peanuts</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>peanut</t>
-        </is>
-      </c>
+          <t>Mangoes (56%), Sugar, salt, Acidity Regulator : Acetic Acid, Whole Baby Garlic Cloves, Cumin Seeds, Mixed Spices, Fenugreek Seeds, Nigella Seeds, Black Peppercorns, cardamom pods, Whole clove, herb.</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr"/>
+      <c r="F163" s="2" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
@@ -5354,21 +5322,29 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>Eau minérale naturelle</t>
+          <t>Peanut Butter Pretzels</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111035000058</t>
+          <t>https://world.openfoodfacts.org/product/0096619336753</t>
         </is>
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>100% mineral water</t>
-        </is>
-      </c>
-      <c r="E164" s="2" t="inlineStr"/>
-      <c r="F164" s="2" t="inlineStr"/>
+          <t>Enriched Wheat Flour (Wheat Flour, Niacin, Reduced Iron, Thiamin Mononitrate, Riboflavin, Folic Acid), Peanut Butter (Valencia Peanuts, Molasses, Mono - and diglycerides), Salt, Soybean Oil, Corn Syrup, Barley Malt Extract.</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>Gluten, Peanuts, Soybeans</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="inlineStr">
+        <is>
+          <t>milk, peanut, soy, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
@@ -5378,27 +5354,27 @@
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>Chocolat noir bio 70% cacao</t>
+          <t>Toasted Muesli Almond, Cashew &amp; Chia</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/26083827</t>
+          <t>https://world.openfoodfacts.org/product/9326666610447</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>cocoa mass', sugar', cocoa butter', vanilla extract', cocoa: 70% minimum, possible traces of dark chocolate fruit from organic farming, nuts, gluten and milk, fairtrade certified organic and fair trade ingredients fairtrade / max havelaar certified (100%),</t>
+          <t>Whole Grains (68%) [Oats, Barley, Wheat, Triticale (Wheat, Rye)], Golden Syrup, Nuts [Almond (4%), Cashew (2%)], Seeds [Pepita (2%), Sunflower (2%), Chia (2%)], Honey, Sunflower Oil, Natural Flavour, Cinnamon (0.5%), Antioxidant (Vitamin E). CONTAINS: WHEAT, GLUTEN, ALMOND, CASHEW. MAY CONTAIN: BRAZIL NUT, HAZELNUT, MACADAMIA, PECAN, PINE NUT, PISTACHIO, WALNUT, LUPIN, MILK, PEANUT, SESAME, SOY.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Milk, Molluscs</t>
+          <t>Gluten, Lupin, Milk, Nuts, Peanuts, Sesame Seeds</t>
         </is>
       </c>
       <c r="F165" s="2" t="inlineStr">
         <is>
-          <t>milk, shellfish, tree nut, wheat</t>
+          <t>milk, peanut, sesame, soy, tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -5410,29 +5386,25 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>Crunchy peanut butter</t>
+          <t>Barbecue Sauce</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5060367180758</t>
+          <t>https://world.openfoodfacts.org/product/0013409451328</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Peanuts 99.5%, Sea Salt.</t>
+          <t>HIGH FRUCTOSE CORN SYRUP, DISTILLED VINEGAR, TOMATO PASTE, MODIFIED FOOD STARCH, CONTAINS LESS THAN 2% OF: SALT, PINEAPPLE JUICE CONCENTRATE, NATURAL SMOKE FLAVOR, SPICES, CARAMEL COLOR, SODIUM BENZOATE AS A PRESERVATIVE, MOLASSES, CORN SYRUP, GALRIC , SUGAR , TAMARIND, NATURAL FLAVOR.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr">
         <is>
-          <t>Peanuts</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>peanut</t>
-        </is>
-      </c>
+          <t>Celery</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
@@ -5442,29 +5414,25 @@
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>Coleslaw 320g</t>
+          <t>Gewürzgurken</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3083681081640</t>
+          <t>https://world.openfoodfacts.org/product/20004330</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>white cabbage (44%), carrots (29%), water, rapeseed oil, sugar, old-fashioned mustard (1%) (water, alcohol vinegar, mustard seeds, integuments, salt, natural flavors, spice), alcohol vinegar, onions (1%), dijon mustard (water, mustard seeds, alcohol vinegar, salt), salt, processed potato starch, powdered eggs, thickeners: e412-e415, anti-oxidant: ascorbic acid, natural pepper flavor,</t>
+          <t>Cucumbers, water, vinegar, sugar, salt, mustard seeds, dill, onions, red paprika, black peppercorns</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr">
         <is>
-          <t>Celery, Crustaceans, Eggs, Fish, Gluten, Milk, Mustard</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>egg, fish, milk, shellfish, wheat</t>
-        </is>
-      </c>
+          <t>Mustard</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
@@ -5474,27 +5442,27 @@
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>Mayonnaise American Style</t>
+          <t>Blueberry</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8715700421957</t>
+          <t>https://world.openfoodfacts.org/product/0857777004195</t>
         </is>
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>rapeseed oil 68%, water, pasteurized egg yolk from hens raised in plen air 5%, vinegar, sugar, starch, salt, mustard seeds, spices, antioxidant (calcium disodium edta)</t>
+          <t>Dates, egg whites, almonds, cashews, blueberries, natural blueberry flavor.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Mustard</t>
+          <t>Eggs, Nuts</t>
         </is>
       </c>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>egg, tree nut</t>
         </is>
       </c>
     </row>
@@ -5506,17 +5474,17 @@
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>Caobel</t>
+          <t>coca cola 0,5</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111017007013</t>
+          <t>https://world.openfoodfacts.org/product/54491472</t>
         </is>
       </c>
       <c r="D169" s="2" t="inlineStr">
         <is>
-          <t>Ingrédients Sucre, poudre de cacao, cernates, amidon, arôme artificiel vanilline, sel Conservation Afin de préserver toutes les qualités de Caobe il est recommandé de bien refermer le sachet et de le conserver dans un endroit sea.</t>
+          <t>water, fructose-glucose syrup, carbon dioxide, colorant: e150d, acid: phosphoric acid, natural flavors, caffeine flavoring,</t>
         </is>
       </c>
       <c r="E169" s="2" t="inlineStr"/>
@@ -5530,27 +5498,27 @@
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>Goûter aux écorces confites</t>
+          <t>uht jaouda 1L</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3251491787803</t>
+          <t>https://world.openfoodfacts.org/product/6111242101180</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>farine de blé 62,6%, sucre de canne roux, huile de colza, farine de soja, écorces d'orange confites 5,3% (écorces d'orange, sirop de glucose-fructose, sucre, acidifiant : acide citrique), écorces de citron confites 5,3% (écorces de citron, sirop de glucose-fructose, sucre, acidifiant : acide citrique), fibres de chicorée : fructooligosaccharides, protéines de lait, arôme naturel de mandarine, poudre à lever: carbonates d'ammonium. fabriqué dans un atelier qui utilise des fruits à coque, du lupin, de l'oeuf et du sésame.</t>
+          <t>whole milk</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr">
         <is>
-          <t>Eggs, Gluten, Lupin, Milk, Nuts, Sesame Seeds, Soybeans</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>egg, milk, sesame, soy, tree nut, wheat</t>
+          <t>milk</t>
         </is>
       </c>
     </row>
@@ -5562,29 +5530,21 @@
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>Walnusskerne naturbelassen</t>
+          <t>BEANZ In a rich tomato sauce</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20005733</t>
+          <t>https://world.openfoodfacts.org/product/5000157024671</t>
         </is>
       </c>
       <c r="D171" s="2" t="inlineStr">
         <is>
-          <t>possible traces of other nuts and peanuts,</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>Nuts</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>peanut, tree nut</t>
-        </is>
-      </c>
+          <t>Beans (50%), Tomatoes (36%), Water, Sugar, Modified Cornflour, Salt, Spice Extracts , Herb Extract</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr"/>
+      <c r="F171" s="2" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="inlineStr">
@@ -5594,27 +5554,27 @@
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>Flocons d'avoine</t>
+          <t>Shrimp</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3560071190965</t>
+          <t>https://world.openfoodfacts.org/product/0096619187119</t>
         </is>
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>100% complete oatmeal,</t>
+          <t>Shrimp, Water and Salt., Shrimp.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Lupin, Milk, Mustard, Peanuts, Sesame Seeds, Avoine</t>
+          <t>Crustaceans</t>
         </is>
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>milk, peanut, sesame, wheat</t>
+          <t>shellfish</t>
         </is>
       </c>
     </row>
@@ -5626,21 +5586,29 @@
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>BEANZ In a rich tomato sauce</t>
+          <t>Barista edition oat drink</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5000157024671</t>
+          <t>https://world.openfoodfacts.org/product/7394376620157</t>
         </is>
       </c>
       <c r="D173" s="2" t="inlineStr">
         <is>
-          <t>Beans (50%), Tomatoes (36%), Water, Sugar, Modified Cornflour, Salt, Spice Extracts , Herb Extract</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr"/>
-      <c r="F173" s="2" t="inlineStr"/>
+          <t>water, oats 10%, rapeseed oil, acidity regulator (dipotassium phosphate), minerals (calcium carbonate, potassium iodide), salt, vitamins (d2, riboflavin, b12),</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>Gluten</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="inlineStr">
@@ -5650,17 +5618,17 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>Ricoré original</t>
+          <t>Seabrook sea salt</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/7613035676497</t>
+          <t>https://world.openfoodfacts.org/product/5016451062110</t>
         </is>
       </c>
       <c r="D174" s="2" t="inlineStr">
         <is>
-          <t>soluble coffee (34,3%), chicory fibre (oligofructose) (33%), soluble chicory (30,8%), magnesium sulphate,</t>
+          <t>potatoes, sunflower oil (30%), sea salt</t>
         </is>
       </c>
       <c r="E174" s="2" t="inlineStr"/>
@@ -5674,27 +5642,27 @@
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>Real Mayonnaise</t>
+          <t>Erdnussbutter, creamy</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8722700479475</t>
+          <t>https://world.openfoodfacts.org/product/20166076</t>
         </is>
       </c>
       <c r="D175" s="2" t="inlineStr">
         <is>
-          <t>rapeseed oil (78%), _egg_ , _egg_ yolk (7,9%), water, spirit vinegar, sugar, salt, lemon juice concentrate, flavourings, antioxidant (calcium disodium EDTA), paprika extract, sunflower oil</t>
+          <t>roasted peanut kernels 90.9%, sugar, fully hydrogenated rapeseed oil, table salt,</t>
         </is>
       </c>
       <c r="E175" s="2" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Peanuts</t>
         </is>
       </c>
       <c r="F175" s="2" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>peanut</t>
         </is>
       </c>
     </row>
@@ -5706,27 +5674,27 @@
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>Goûter aux raisins</t>
+          <t>Snickers</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3251491787810</t>
+          <t>https://world.openfoodfacts.org/product/5000159461122</t>
         </is>
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>wheat flour 59.5%, brown cane sugar, rapeseed oil, raisins 10%, soya flour, grape paste 3.3%, chicory fibre: fructooligosaccharides, baking powders (potassium carbonates, ammonium carbonates), milk proteins,</t>
+          <t>Milk Chocolate (sugar, cocoa butter, chocolate, skim milk, lactose, milkfat, soy lecithin), peanuts, corn syrup, sugar, palm oil, skim milk, lactose, salt, egg whites, artificial flavor.</t>
         </is>
       </c>
       <c r="E176" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Lupin, Milk, Nuts, Soybeans</t>
+          <t>Eggs, Milk, Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F176" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut, wheat</t>
+          <t>egg, milk, peanut, soy</t>
         </is>
       </c>
     </row>
@@ -5738,21 +5706,29 @@
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>Eau minérale naturelle</t>
+          <t>Jasons Sourdough</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3068320120256</t>
+          <t>https://world.openfoodfacts.org/product/5025125000129</t>
         </is>
       </c>
       <c r="D177" s="2" t="inlineStr">
         <is>
-          <t>natural mineral water</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr"/>
-      <c r="F177" s="2" t="inlineStr"/>
+          <t>Wheat Flour (Wheat Flour, Calcium Carbonate, Iron, Niacin, Thiamin), Water, Wholemeal Spelt (Wheat) Flour, Sprouted Spelt (Wheat) Grains (5%), Rye Flour, Salt, Fermented Wheat Flour.</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>Gluten</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>wheat</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
@@ -5762,21 +5738,29 @@
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>Tartines craquantes au sarrasin imp</t>
+          <t>Real Mayonnaise</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/06175700</t>
+          <t>https://world.openfoodfacts.org/product/0048001265745</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>Farine de maïs* (70%), farine de riz*, sel marin. * K issus de l'agriculture biologique. • sans sucres ajoutés(¹) (contient des sucres naturellement présents.</t>
-        </is>
-      </c>
-      <c r="E178" s="2" t="inlineStr"/>
-      <c r="F178" s="2" t="inlineStr"/>
+          <t>soybean oil, water, whole eggs and egg yolks, distilled vinegar, salt, sugar, lemon juice concentrate, calcium disodium EDTA, natural flavors</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>Eggs, Soybeans</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>egg, soy</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
@@ -5786,21 +5770,29 @@
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>sauce tomate cuisinée</t>
+          <t>Roasted Cashew-Peanut-Mix Honey &amp; Salt</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8445290615350</t>
+          <t>https://world.openfoodfacts.org/product/20333737</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>Tomato, tomato concentrate, water, non-hydrogenated sunflower oil, sugar, modified corn starch, salt, natural onion flavor, onion, garlic, white pepper</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr"/>
-      <c r="F179" s="2" t="inlineStr"/>
+          <t>33% cashews , 32% peanut kernels , sugar, 3% honey, vegetable oils (sunflower, oil palm), gelling agent: gum arabic, 0,8% table salt, glucose syrup, dye: ammonia sugar caramel,</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>Nuts, Peanuts</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>peanut, tree nut</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="inlineStr">
@@ -5810,17 +5802,17 @@
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>La salvetat</t>
+          <t>Veg crisps</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3068320123264</t>
+          <t>https://world.openfoodfacts.org/product/5056051802419</t>
         </is>
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>spring water</t>
+          <t>Mixed root vegetables in variable proportions 61% (parsnip, beetroot and carrot), sunflower oil, sea salt</t>
         </is>
       </c>
       <c r="E180" s="2" t="inlineStr"/>
@@ -5834,27 +5826,27 @@
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>Skyr nature 0%</t>
+          <t>Panda Brand Oyster Flavoured Sauce</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3329770077003</t>
+          <t>https://world.openfoodfacts.org/product/0078895300024</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>Fat free yogurt (_Milk_).</t>
+          <t>Water, sugar, salt, oyster extract 11% [oysters (molluscs) 90%, water, salt], salt, modified corn starch, flavour enhancer E621, wheat flour, colour E150a</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Gluten, Molluscs</t>
         </is>
       </c>
       <c r="F181" s="2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>shellfish, wheat</t>
         </is>
       </c>
     </row>
@@ -5866,27 +5858,27 @@
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>Vegan Bouillon powder</t>
+          <t>Peanut Butter</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/50160884</t>
+          <t>https://world.openfoodfacts.org/product/0051500240946</t>
         </is>
       </c>
       <c r="D182" s="2" t="inlineStr">
         <is>
-          <t>Sea salt, Potato starch, Hydrolysed vegetable protein (containing soya), Vegetable oil (sunflower, rapeseed), vegetables 7% (onion, parsnip, carrot, leek), Celery seed, Parsley, Turmeric, White pepper, Garlic, Mace, Lovage, Nutmeg.</t>
+          <t>ROASTED PEANUTS, SUGAR, CONTAINS 2% OR LESS OF: MOLASSES, FULLY HYDROGENATED VEGETABLE OILS (RAPESEED AND SOYBEAN), MONO AND DIGLYCERIDES, SALT.</t>
         </is>
       </c>
       <c r="E182" s="2" t="inlineStr">
         <is>
-          <t>Celery, Milk, Soybeans</t>
+          <t>Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F182" s="2" t="inlineStr">
         <is>
-          <t>milk, soy</t>
+          <t>peanut, soy</t>
         </is>
       </c>
     </row>
@@ -5898,27 +5890,27 @@
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>Nuss-Nougat-Creme</t>
+          <t>Milk Chocolate Bar</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/4006040007999</t>
+          <t>https://world.openfoodfacts.org/product/7614500035788</t>
         </is>
       </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>cane sugar, palm oil, sunflower oil, hazelnuts 14%, cocoa powder, deoiled strong, sweet lupine flour , bourbon vanilla,</t>
+          <t>sugar, whole milk powder, cocoa butter, cocoa mass, honey (3,0%), milk fat, almonds (1,6%), emulsifier (soya lecithin), egg white, flavouring, milk chocolate: cocoa solids 28% minimum, milk solids 14% minimum,</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr">
         <is>
-          <t>Lupin, Nuts</t>
+          <t>Eggs, Milk, Nuts, Soybeans</t>
         </is>
       </c>
       <c r="F183" s="2" t="inlineStr">
         <is>
-          <t>tree nut, wheat</t>
+          <t>egg, milk, soy, tree nut</t>
         </is>
       </c>
     </row>
@@ -5930,27 +5922,27 @@
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>Protein Cocoa Hazelnut Bars</t>
+          <t>Kinder Chocolate</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5060088700112</t>
+          <t>https://world.openfoodfacts.org/product/80177616</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>Dates (38%), Peanuts (35%), Chicory fibre (10%), Peanut flour (8%), Hazelnuts (5%), Fat-reduced cocoa powder (3%).</t>
+          <t>Fine milk chocolate 40% (sugar, milk powder, cocoa butter, cocoa mass, emulsifier (lecithins ( soya )), vanillin), sugar, skimmed milk powder, palm oil, concentrated butter , emulsifier (lecithins ( soya )), vanillin.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr">
         <is>
-          <t>Nuts, Peanuts, Cacahuetes, Noisettes</t>
+          <t>Milk, Soybeans</t>
         </is>
       </c>
       <c r="F184" s="2" t="inlineStr">
         <is>
-          <t>peanut, tree nut, wheat</t>
+          <t>milk, soy</t>
         </is>
       </c>
     </row>
@@ -5962,21 +5954,29 @@
       </c>
       <c r="B185" s="2" t="inlineStr">
         <is>
-          <t>Sirop d'érable ambré goût riche</t>
+          <t>PUMPKIN SEED + FLAX GRANOLA</t>
         </is>
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3088542500285</t>
+          <t>https://world.openfoodfacts.org/product/0058449770565</t>
         </is>
       </c>
       <c r="D185" s="2" t="inlineStr">
         <is>
-          <t>Pur sirop d'érable</t>
-        </is>
-      </c>
-      <c r="E185" s="2" t="inlineStr"/>
-      <c r="F185" s="2" t="inlineStr"/>
+          <t>Whole grain rolled oats , cane sugar, soy oil , brown rice flour pumpkin seeds, flax seeds oat syrup solids [oat syrup solids , tocopherols (added to enhance freshness)], sea salt, molasses , cinnamon . Organic. Contains soy. Produced in a facility that uses wheat, peanuts and tree nuts. VEGAN Contains 700 mg of ALA per serving, which is 44% of the 1.6 g Daily Value for ALA.</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="inlineStr">
+        <is>
+          <t>Gluten, Nuts, Peanuts, Soybeans</t>
+        </is>
+      </c>
+      <c r="F185" s="2" t="inlineStr">
+        <is>
+          <t>peanut, soy, tree nut, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
@@ -5986,29 +5986,21 @@
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>Crunchy Peanut Butter</t>
+          <t>Tiptree tomato ketchup</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5013665108801</t>
+          <t>https://world.openfoodfacts.org/product/0043647868039</t>
         </is>
       </c>
       <c r="D186" s="2" t="inlineStr">
         <is>
-          <t>roasted _peanuts_ 97%, sustainable palm oil, sea salt.</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr">
-        <is>
-          <t>Peanuts</t>
-        </is>
-      </c>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>peanut</t>
-        </is>
-      </c>
+          <t>Tomatoes, Sugar, Wine Vinegar, Lemon Juice, Salt, Spices.</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr"/>
+      <c r="F186" s="2" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
@@ -6018,23 +6010,27 @@
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>Granatapfel Sauerkirsche Fruchtgummi</t>
+          <t>Ramen Noodle Soup</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/10614594</t>
+          <t>https://world.openfoodfacts.org/product/0041789002113</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>Weizenmehl, Wasser, 3% Kartoffelflocken, Roggenmehl, Salz, Hefe, Säureregulator: Natriumacetate, Weizenmalzmehl, Alkohol. Kann Spuren von Soja, Milch, Senf und Sesam enthalten.</t>
-        </is>
-      </c>
-      <c r="E187" s="2" t="inlineStr"/>
+          <t>ENRICHED WHEAT FLOUR (WHEAT FLOUR, NIACIN, REDUCED IRON, THIAMINE MONONITRAT RIBOFLAVIN, FOLIC ACID), VEGETABLE OIL (CONTAINS ONE OR MORE OF THE FOLLOWING: CANOLA PRESERVED BY TBHQ, CONTAINS LESS THAN 1% OF: SALT, POTASSIUM CARBONATE, SOY SAUCE (WATER, WHEAT, SOYBEAN, SALT), SODIUM CARBONATE, SODIUM HEXAMETAPHOSPHATE, SODIUM TRIPOLYPHOSPHATE, SOUP BASE INGREDIENTS: SALT, SUGAR, CONTAINS LESS THAN 1% OF: MONOSODIUM GLUTAMATE, MALTODEXTRIN, SPICES (CELERY SEED), HYDROLYZED CORN PROTEIN, HYDROLYZED WHEAT PROTEIN, HYDROLYZED SO NATURAL FLAVORS, DEHYDRATED VEGETABLES (CHIVE, GARLIC, ONION), DISODIUM GUANYLATE, DISOCIUM KNOSINATE YEAST EXTRACT. VEGETABLE OIL (PALM), LACTOSE, POWDERED COCKED CHICKEN CONTAINS WHEAT, SOY AND EILE INGREDIENTS. MANUFACTURED IN A FACILITY THAT AI SO PROCESSES CRUSTACEAN SHELLFISH AND SESAME PRODUCTS. CONTAINS A BIOENGINEERED FOOD INGRED ially</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="inlineStr">
+        <is>
+          <t>Celery, Gluten, Milk, Soybeans</t>
+        </is>
+      </c>
       <c r="F187" s="2" t="inlineStr">
         <is>
-          <t>milk, soy</t>
+          <t>milk, sesame, shellfish, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -6046,27 +6042,27 @@
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>Nocciolata</t>
+          <t>Almond Flour Crackers</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8052575090230</t>
+          <t>https://world.openfoodfacts.org/product/0856069005957</t>
         </is>
       </c>
       <c r="D188" s="2" t="inlineStr">
         <is>
-          <t>raw sugar, hazelnut paste 18,5%, sunflower oil, skimmed milk powder, low-fat cocoa powder 6,5%, cocoa butter, emulsifier: soy lecithin, vanilla extract</t>
+          <t>Nut &amp; Seed Flour Blend (almonds, sunflower seeds, flax seeds), Tapioca Starch, Cassava Flour, Organic Sunflower Oil, Sea Salt, Organic Onion, Organic Garlic, Rosemary Extract.</t>
         </is>
       </c>
       <c r="E188" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts, Soybeans</t>
+          <t>Nuts</t>
         </is>
       </c>
       <c r="F188" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>tree nut, wheat</t>
         </is>
       </c>
     </row>
@@ -6078,21 +6074,29 @@
       </c>
       <c r="B189" s="2" t="inlineStr">
         <is>
-          <t>Sidi Ali</t>
+          <t>Big Mac</t>
         </is>
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111035002175</t>
+          <t>https://world.openfoodfacts.org/product/2000000002603</t>
         </is>
       </c>
       <c r="D189" s="2" t="inlineStr">
         <is>
-          <t>sodium, calcium, magnesium, potassium, bicarbonates, sulfates, chlorides,</t>
-        </is>
-      </c>
-      <c r="E189" s="2" t="inlineStr"/>
-      <c r="F189" s="2" t="inlineStr"/>
+          <t>bread (e932a, e471, e282, e281), sesame seeds, ground steaks (beef), salad, onion, pickle (e520, e433), processed cheese (cheddar 51%, water, cheese (9%), skimmed milk powder, butter, melting salts (e331, e330, e338, e450), milk proteins, natural flavours, salt, colours (beta carotene, paprika extract), anti-caking agent (sunflower lecithin) sauce (water, rapeseed oil, alcohol vinegar, pickles, glucose-fructose syrup, sugar, modified corn starch, egg yolk, mustard (water, vinegar, mustard seeds, salt, mustard bran, sugar, caramel, turmeric), spices (including mustard), cooking salt, thickener (e415), natural flavours, yeast extract, firming (e509, e15, e433, e211,edta) in unknown quantities: sulphur dioxide and sulphites, gluten (wheat), gluten (soy), sesame seed, milk, eggs, mustard</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
+        <is>
+          <t>Eggs, Gluten, Milk, Mustard, Sesame Seeds, Soybeans, Sulphur Dioxide And Sulphites</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="inlineStr">
+        <is>
+          <t>egg, milk, sesame, soy, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
@@ -6102,27 +6106,27 @@
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>Ryvita Multigrain Crispbread</t>
+          <t>Napolitain l'Original</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5050974505259</t>
+          <t>https://world.openfoodfacts.org/product/3017760290692</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>rye (flour, bran), toasted seeds &amp; grains (buckwheat, brown linseed, sesame seeds, kibbled rye) 17%, salt.</t>
+          <t>wheat flour 24.4%, sugar, palm oil, glucose-fructose syrup, chocolate powder 6.7% (sugar, cocoa powder), eggs, stabilizer (glycerol), whey powder (milk), margarine (palm oil, water, rapeseed oil, emulsifier (e471), acidity corrector (sodium citrate), acidifier (citric acid), dye (beta-carotene)), glucose syrup, aromas (contains alcohol), lean cocoa powder, , shea butter, salt, emulsifiers (e472b, e472a, soy lecithin), skimmed milk powder, pastry butter, preservative (potassium sorbate), sunflower oil, dye (e160a)</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Sesame Seeds, Soybeans</t>
+          <t>Eggs, Gluten, Milk, Soybeans</t>
         </is>
       </c>
       <c r="F190" s="2" t="inlineStr">
         <is>
-          <t>sesame, soy, wheat</t>
+          <t>egg, milk, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -6134,29 +6138,21 @@
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>Fruit &amp; Nut Mix</t>
+          <t>COCA COLA PET 1.25L CT</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/20815394</t>
+          <t>https://world.openfoodfacts.org/product/5449000267412</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>25% Walnuts, 25% Whole Almonds, 25% Sultanas (Sultanas, Sunflower Oil), 25% Dried Sweetened Cranberries (Cranberries, Sugar, Sunflower Oil).</t>
-        </is>
-      </c>
-      <c r="E191" s="2" t="inlineStr">
-        <is>
-          <t>Nuts, Sulphur Dioxide And Sulphites</t>
-        </is>
-      </c>
-      <c r="F191" s="2" t="inlineStr">
-        <is>
-          <t>tree nut</t>
-        </is>
-      </c>
+          <t>carbonated water, sugar, coloring: e150d, acidifier, phosphoric acid, natural flavourings including caffeine,</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="inlineStr"/>
+      <c r="F191" s="2" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
@@ -6166,27 +6162,27 @@
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>Nutella</t>
+          <t>AnSungTangMyun Noodle</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3017620425035</t>
+          <t>https://world.openfoodfacts.org/product/8801043157735</t>
         </is>
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>UARE ALLE CAD be nutella FERRERO Da co 2252 336 KALE</t>
+          <t>noodles 90%: wheat flour, potato starch, palm oil, rice flour, wheat gluten, salt, acidity regulators e501, e500, e339, antioxidant: e306, emulsifier e322 (contains soy), thickener: e412, seasoning agent (maltodextrin, garlic extract), green tea extract, colour: e101, seasoning powder 10%: condiments (hydrolyzed vegetable protein (soy, wheat), maltodextrin, salt, yeast extract, black pepper, shiitake), salt, sugar, condiments (red chillies, garlic, rice bran oil, black pepper), dried seaweed, flavour enhancer: e631, e627, red chillies, colour: e150c, may contain barley, crustaceans, eggs, fish, peanuts, milk, celery, mustard, sesame seeds and molluscs,</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr">
         <is>
-          <t>Milk, Nuts, Soybeans</t>
+          <t>Celery, Crustaceans, Eggs, Fish, Gluten, Milk, Mustard, Peanuts, Soybeans</t>
         </is>
       </c>
       <c r="F192" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut</t>
+          <t>egg, fish, milk, peanut, sesame, shellfish, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -6198,27 +6194,27 @@
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>Crunchy Peanut Butter</t>
+          <t>organic supergreens fruits &amp; vegetables</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5014213711290</t>
+          <t>https://world.openfoodfacts.org/product/0860002992570</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>Roasted _Peanuts_ (100%).</t>
+          <t>Organic Gum Acacia, Organic Ground Rice Hulls, Organic Inulin, Gut Health, Organic Prebiotic &amp; Probiotics Blend (L. rhamnosus, L. plantarum, P. acidilactici, L. acidophilus, L. gasseri, B. longum, B. lactis), Organic Spirulina (Whole Plant) Powder, Organic Spinach (Leaf and Stalk) Powder, Organic Wheatgrass (Leaf and Stem) Powder, Organic Barley Grass (Leaf and Stem) Powder, Organic Oat Grass (Leaf and Stem) Powder, Organic Alfalfa Grass (Leaf and Stem) Powder, Organic Kale (Leaf and Stalk) Powder, Organic, Berry Antioxidant Blend [Organic Pomegranate Juice Powder, Organic Acai Juice Powder, Organic Goji Juice Powder, Organic Grape Juice Powder, Organic Amla Fruit Powder, Organic Cranberry Powder, Organic Aronia Powder, Organic Sea Buckthorn Juice Powder, Organic Camu Camu Powder, Organic Acerola Juice Powder, Organic Maqui Berry], Organic Carrot (Whole Taproot) Powder, Organic Cauliflower (Flower &amp; Stem) Powder, Organic Chlorella (Whole Plant) Powder, Organic Garlic (Bulb) Powder, Organic Moringa (Leaf) Powder, Organic Onion (Root Bulb) Powder, Organic Parsley (Leaf) Powder, Organic Quinoa (Grain) Powder, Organic Hebridean Seaweed (Thallus) Powder, Organic Protein Blend [Organic Brown Rice Powder, Organic Pea Protein Powder, Organic Sacha Inchi Powder, Organic Pumpkin Seed Protein Powder], Organic Ashwagandha (Root) Powder, Organic Ginger Root (Rhizome) Powder, Organic Cinnamon (Bark) Powder, Organic Cocoa Powder Alkalized, Organic Defatted Flax Seed (Hull) Powder, Organic Maca (Root) Powder, Organic Shatavari (Root) Powder, Organic Green Tea (Leaf) Extract, Organic Sea Veggie Blend (Laminaria hyperborea, Ascophyllum nodosum, Laminaria digitata) (Whole Thallus), Organic Broccoli (Floret and Stalk) Powder, Organic Green, Cabbage (Leaf) Powder, Organic, Organic Celery (Leaf &amp; Stalk) Powder, Organic Green Bell Pepper (Fruit) Powder, Organic Coconut Water Powder, Organic Lemon Juice Powder, Organic Mushroom Blend [Organic Cordyceps (Cordyceps militaris), Organic Cordyceps (Cordyceps sinensis), Organic Reshi (Ganoderma lucidum), Organic Maitake (Grifola frondosa), Organic Lion's Mane (Hericium erinaceus), Organic Chaga (Inonotus obliquus), Organic Shiitake (Lentinula edodes), Organic Oyster (Pleurotus ostreatus), Organic Turkey Tail (Trametes versicolor), Organic Snow Fungus (Tremella fuciformis), Organic White Button (Agaricus bisporus), Organic King Oyster (Pleurotus eryngii)], Enzyme Blend (Cellulase, Amylase, Protease), Organic natural flavors, Citric Acid, Organic Stevia extract</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr">
         <is>
-          <t>Peanuts</t>
+          <t>Celery, Molluscs</t>
         </is>
       </c>
       <c r="F193" s="2" t="inlineStr">
         <is>
-          <t>peanut</t>
+          <t>shellfish, tree nut</t>
         </is>
       </c>
     </row>
@@ -6230,21 +6226,29 @@
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>Coca Cola</t>
+          <t>Tesco Spicy Bean with Cheese Wrap</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/42105220</t>
+          <t>https://world.openfoodfacts.org/product/03275771</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>water, sugar, carbonic acid, e150d, e338, natural flavors including caffeine</t>
-        </is>
-      </c>
-      <c r="E194" s="2" t="inlineStr"/>
-      <c r="F194" s="2" t="inlineStr"/>
+          <t>Wheat Flour [Wheat Flour, Calcium Carbonate, Iron, Niacin, Thiamin], Water, Black Turtle Beans (10%), Borlotti Beans (10%), Medium Fat Soft Cheese (Milk), Lettuce, Mild Cheddar Cheese (With Colour: Beta Carotene) (Milk), Red Pepper, Tomato Paste, Rapeseed Oil, Palm Oil, White Wine Vinegar, Onion, Herbs, Sugar, Tomato Powder, Cornflour, Humectant (Glycerol), Spices, Salt, Pasteurised Egg Yolk, Tomato, Bell Pepper Powder, Potato Starch, Red Chilli Purée, Wheat Fibre, Spirit Vinegar, Garlic Purée, Concentrated Lemon Juice, Garlic Powder, Onion Powder, Mustard Flour, Black Pepper.</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="inlineStr">
+        <is>
+          <t>Eggs, Gluten, Milk, Mustard</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="inlineStr">
+        <is>
+          <t>egg, milk, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
@@ -6254,21 +6258,29 @@
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>Chickpeas In Water</t>
+          <t>Alaska Salmon Burgers</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/5051399182506</t>
+          <t>https://world.openfoodfacts.org/product/0028029088816</t>
         </is>
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>chickpeas, water, antioxidant (ascorbic acid).</t>
-        </is>
-      </c>
-      <c r="E195" s="2" t="inlineStr"/>
-      <c r="F195" s="2" t="inlineStr"/>
+          <t>Pink And/or Keta Salmon, Vegetable Oil (soybean And/or Canola), Water, Contains 2% Or Less Of: Ground Onion, Salt, Potato Extract, Garlic Powder, Mustard Flour, White Pepper, Beet Juice (color), Annatto (color), Rosemary Extract, Mesquite Smoke Flavor, Lemon Juice From Concentrate.</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="inlineStr">
+        <is>
+          <t>Mustard, Soybeans</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>fish, soy, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
@@ -6278,27 +6290,27 @@
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>Kinder Bueno</t>
+          <t>Buldak Original</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/80052760</t>
+          <t>https://world.openfoodfacts.org/product/8801073110502</t>
         </is>
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>MILK chocolate 31.5% (sugar, cocoa butter, cocoa mass, skimmed MILK powder, concentrated POTTER, emulsifier: lecithins (SOYA), vanillin), sugar, palm oil, WHEAT flour, HAZELNUTS (10.5%), skimmed MILK powder, MILK powder, chocolate (sugar, cocoa mass, cocoa butter, emulsifier: lecithins (SOYA), vanillin), fat-reduced cocoa, emulsifier: lecithins (SOYA), raising agent (sodium bicarbonate), salt, vanillin.</t>
+          <t>Noodle [Wheat flour, Food Starch Modified, Palm Oil, 2% Wheat gluten, Salt, Glycerin, Soy Lecithin, Polyglycerol Esters of Fatty Acids, Potassium Carbonate, Sodium Carbonate, Sodium Phosphate Dibasic, Guar Gum, Tocopherols, Riboflavin (Color)], Sauce [Water, Artificial Chicken Flavor Powder (Artificial Flavor, Dextrin, Wheat Starch, Sugar, Salt, Yeast Extract, Natural Flavor, Disodium 5'-Ribonucleotide, Maltodextrin, Corn Starch), Soy Sauce Seasoning (Soybeans, Water, Salt, Wheat, Sodium Carbonate, High Fructose Corn Syrup, Disodium 5'-Ribonucleotide, Garlic, Steviol Glycoside, Maltodextrin, Sugar), Sugar, Hot Pepper Seasoning (Red Pepper, Dextrin, Salt, Sugar, Onion Powder, Artificial Flavor, Garlic Powder, Silicon Dioxide, Soy Sauce (Water, Soybeans, Wheat, Salt), Capsicum Oleoresin, Paprika Oleoresin, Monosodium Glutamate, Disodium Inosinate, Disodium Guanylate), Soybean Oil, Onion, Red Pepper Seed Oil, 2% Garlic, Food Starch Modified, Capsicum Oleoresin, Paprika Oleoresin, Black Pepper Powder, Natural and Artificial Curry Flavor (Cumin, Salt, Maltodextrin, Artificial Flavor)], Flake [Sesame, Dried Seaweed].</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Milk, Nuts, Soybeans</t>
+          <t>Gluten, Sesame Seeds, Soybeans</t>
         </is>
       </c>
       <c r="F196" s="2" t="inlineStr">
         <is>
-          <t>milk, soy, tree nut, wheat</t>
+          <t>sesame, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -6310,27 +6322,27 @@
       </c>
       <c r="B197" s="2" t="inlineStr">
         <is>
-          <t>Le moelleux</t>
+          <t>Mae ploy Red curry paste 400g</t>
         </is>
       </c>
       <c r="C197" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/3302740067969</t>
+          <t>https://world.openfoodfacts.org/product/0044738102346</t>
         </is>
       </c>
       <c r="D197" s="2" t="inlineStr">
         <is>
-          <t>fish flesh* 43%, water, starches (including wheat), rapeseed oil, sugar, salt, natural flavourings (contains crustaceans, molluscs, fish), colouring: paprika extract, traces of milk if any,</t>
+          <t>Dried red chili, garlic, lemongrass, salt, shallot, galangal, shrimp paste (shrimp, salt), kaffir lime peel, pepper.</t>
         </is>
       </c>
       <c r="E197" s="2" t="inlineStr">
         <is>
-          <t>Crustaceans, Fish, Gluten, Molluscs</t>
+          <t>Crustaceans</t>
         </is>
       </c>
       <c r="F197" s="2" t="inlineStr">
         <is>
-          <t>fish, milk, shellfish, wheat</t>
+          <t>shellfish</t>
         </is>
       </c>
     </row>
@@ -6342,27 +6354,27 @@
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>Sweet &amp; Salty Nut chocolat noir et mélange de noix, 5 barres de 30 g</t>
+          <t>Artesano bakery bread</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/8410076610621</t>
+          <t>https://world.openfoodfacts.org/product/0072945612419</t>
         </is>
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>roasted peanuts (17%), whole oats (12%), sugar, chicory root extract, glucose syrup, wheat flour, vegetable fat: palm, shea, maltodextrin, cocoa paste, almond pieces (4%), fructose, lean cocoa powder, rice flour, sunflower oil, lactose (milk), peanut butter, humectant: glycerol, salt, emulsifiers: sunflower and soy lecithin, dextrose, natural flavors, wheat germ, cocoa butter, antioxidant, rich tocopherol extract, honey,</t>
+          <t>ENRICHED WHEAT FLOUR (FLOUR, MALTED BARLEY FLOUR, REDUCED IRON, NIACIN, THIAMIN MONONITRATE (VITAMIN B1), RIBOFLAVIN (VITAMIN B2), FOLIC ACID), WATER, SUGAR, YEAST, VEGETABLE OIL (SOYBEAN), WHEAT GLUTEN, SEA SALT, CULTURED WHEAT FLOUR, SOY LECITHIN, CITRIC ACID GRAIN VINEGAR, SESAME SEEDS.</t>
         </is>
       </c>
       <c r="E198" s="2" t="inlineStr">
         <is>
-          <t>Gluten, Milk, Nuts, Peanuts, Soybeans</t>
+          <t>Gluten, Sesame Seeds, Soybeans</t>
         </is>
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>milk, peanut, soy, tree nut, wheat</t>
+          <t>sesame, soy, wheat</t>
         </is>
       </c>
     </row>
@@ -6374,21 +6386,29 @@
       </c>
       <c r="B199" s="2" t="inlineStr">
         <is>
-          <t>Vip crema gold</t>
+          <t>Sesame crostini crunchy little toasts with bold possibilities</t>
         </is>
       </c>
       <c r="C199" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111250473453</t>
+          <t>https://world.openfoodfacts.org/product/8710649120909</t>
         </is>
       </c>
       <c r="D199" s="2" t="inlineStr">
         <is>
-          <t>cate soluble 100% 100% instant coffee,</t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="inlineStr"/>
-      <c r="F199" s="2" t="inlineStr"/>
+          <t>Wheat flour, sesame seeds, yeast, salt, malt (barley), emulsifiers: sodium stearoyl-2-lactylate, soy lecithin.</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="inlineStr">
+        <is>
+          <t>Gluten, Sesame Seeds, Soybeans</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>sesame, soy, wheat</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="inlineStr">
@@ -6398,27 +6418,27 @@
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>Jebli</t>
+          <t>REAL MAYONNAISE</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111206000733</t>
+          <t>https://world.openfoodfacts.org/product/0048001213487</t>
         </is>
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>white cheese, water cream, milk proteins, salt, coagulants (starch, agar, xatan gum), preservatives (potassium sorbate), flavor, keep cool between 4 and 6° 19% of the fatty substances,</t>
+          <t>soybean oil, water, whole eggs and egg yolks (whole eggs and egg yolks), vinegar, salt, sugar, lemon juice concentrate, calcium disodium edta (used to protect quality), natural flavors,</t>
         </is>
       </c>
       <c r="E200" s="2" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Eggs, Soybeans</t>
         </is>
       </c>
       <c r="F200" s="2" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>egg, soy</t>
         </is>
       </c>
     </row>
@@ -6430,29 +6450,21 @@
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>Mayonnaise</t>
+          <t>Coke Zero</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>https://world.openfoodfacts.org/product/6111250475129</t>
+          <t>https://world.openfoodfacts.org/product/5449000214799</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>Sunflower oil, water, spirit vinegar, table salt, egg yolk (6%), mustard, sugar, modified starch, stabilizer (xanthan gum), preservative (potassium sorbate), antioxidant (citric acid), calcium disodium EDTA</t>
-        </is>
-      </c>
-      <c r="E201" s="2" t="inlineStr">
-        <is>
-          <t>Eggs, Mustard</t>
-        </is>
-      </c>
-      <c r="F201" s="2" t="inlineStr">
-        <is>
-          <t>egg</t>
-        </is>
-      </c>
+          <t>carbonated water, colouring (e150d), acidifier (phosphoric acid), sweeteners (aspartame, acesulfame-k), natural flavors, caffeine aroma, acidity regulator (sodium citrates)</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr"/>
+      <c r="F201" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
